--- a/Predicciones.xlsx
+++ b/Predicciones.xlsx
@@ -450,7 +450,7 @@
         <v>10001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4194060114837513</v>
+        <v>0.2694060114837514</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>10002</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3880314778712965</v>
+        <v>0.2380314778712966</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="n">
-        <v>0.393894100787809</v>
+        <v>0.243894100787809</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3840557071815607</v>
+        <v>0.2340557071815607</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>10005</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3832809045730268</v>
+        <v>0.2332809045730268</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>10006</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3563473606641797</v>
+        <v>0.2063473606641797</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>10007</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3422307718001455</v>
+        <v>0.1922307718001455</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>10008</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3438205116527537</v>
+        <v>0.1938205116527538</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>10009</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3416346519390385</v>
+        <v>0.1916346519390385</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10010</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3503402088613492</v>
+        <v>0.2003402088613492</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10011</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3509770344243921</v>
+        <v>0.2009770344243921</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>10012</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3931997703272089</v>
+        <v>0.2431997703272089</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>10013</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3807679203619048</v>
+        <v>0.2307679203619047</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>10014</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3626667896887632</v>
+        <v>0.2126667896887632</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>10015</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3756821939600901</v>
+        <v>0.2256821939600901</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>10016</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4030839211658008</v>
+        <v>0.2530839211658009</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>10017</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4176806150605954</v>
+        <v>0.2676806150605954</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>10018</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3199096491258452</v>
+        <v>0.1699096491258452</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>10019</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4014294776098105</v>
+        <v>0.2514294776098105</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>10020</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3482090841444841</v>
+        <v>0.1982090841444841</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>10021</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3790293312704364</v>
+        <v>0.2290293312704364</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>10022</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3357267777356696</v>
+        <v>0.1857267777356696</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>10023</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3898175926600926</v>
+        <v>0.2398175926600927</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>10024</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3205706973577646</v>
+        <v>0.1705706973577646</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>10025</v>
       </c>
       <c r="B26" t="n">
-        <v>0.361783680480707</v>
+        <v>0.211783680480707</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>10026</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3602964449508369</v>
+        <v>0.2102964449508369</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>10027</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4080095385213157</v>
+        <v>0.2580095385213157</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>10028</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3740995471180556</v>
+        <v>0.2240995471180556</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>10029</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3435636039046959</v>
+        <v>0.1935636039046959</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>10030</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3409919885769446</v>
+        <v>0.1909919885769445</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>10031</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3951735040312301</v>
+        <v>0.2451735040312301</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>10032</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3467371867613759</v>
+        <v>0.1967371867613759</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>10033</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3764188872351323</v>
+        <v>0.2264188872351323</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>10034</v>
       </c>
       <c r="B35" t="n">
-        <v>0.361621215748213</v>
+        <v>0.211621215748213</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>10035</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3436520422977778</v>
+        <v>0.1936520422977778</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>10036</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4086321396523414</v>
+        <v>0.2586321396523414</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>10037</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3409231185399675</v>
+        <v>0.1909231185399675</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>10038</v>
       </c>
       <c r="B39" t="n">
-        <v>0.377888993944074</v>
+        <v>0.2278889939440741</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>10039</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3448582917901983</v>
+        <v>0.1948582917901983</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>10040</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3626939918043123</v>
+        <v>0.2126939918043123</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>10041</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3684271245385914</v>
+        <v>0.2184271245385914</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>10042</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3780398417920702</v>
+        <v>0.2280398417920702</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>10043</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3579352082452379</v>
+        <v>0.207935208245238</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>10044</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3493634844428571</v>
+        <v>0.1993634844428571</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>10045</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3486801465281217</v>
+        <v>0.1986801465281218</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>10046</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3511383749060967</v>
+        <v>0.2011383749060967</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>10047</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3710110819064682</v>
+        <v>0.2210110819064682</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>10048</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3504986316160053</v>
+        <v>0.2004986316160053</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>10049</v>
       </c>
       <c r="B50" t="n">
-        <v>0.400332050981746</v>
+        <v>0.2503320509817459</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>10050</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3672650576491452</v>
+        <v>0.2172650576491452</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>10051</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3738027974792988</v>
+        <v>0.2238027974792988</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>10052</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3931910905591799</v>
+        <v>0.2431910905591799</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>10053</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3745315217928827</v>
+        <v>0.2245315217928827</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>10054</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3546133488412433</v>
+        <v>0.2046133488412434</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>10055</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3445970699710185</v>
+        <v>0.1945970699710185</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>10056</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3808050095679932</v>
+        <v>0.2308050095679932</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>10057</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3740997753169313</v>
+        <v>0.2240997753169313</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>10058</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3868212447564288</v>
+        <v>0.2368212447564287</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>10059</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3775715967193384</v>
+        <v>0.2275715967193384</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>10060</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3542458921710617</v>
+        <v>0.2042458921710617</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>10061</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3641786340716004</v>
+        <v>0.2141786340716004</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>10062</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3646274579312487</v>
+        <v>0.2146274579312487</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>10063</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3726532643428221</v>
+        <v>0.2226532643428221</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>10064</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3145344796125109</v>
+        <v>0.1645344796125109</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>10065</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3590165113765608</v>
+        <v>0.2090165113765607</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>10066</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3988346279357274</v>
+        <v>0.2488346279357274</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>10067</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3612867335919812</v>
+        <v>0.2112867335919812</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>10068</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3807597406089815</v>
+        <v>0.2307597406089816</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>10069</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3880500386863758</v>
+        <v>0.2380500386863758</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>10070</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3725135271077707</v>
+        <v>0.2225135271077707</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>10071</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3597462258700662</v>
+        <v>0.2097462258700662</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>10072</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3804995554765344</v>
+        <v>0.2304995554765344</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>10073</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3576381573869708</v>
+        <v>0.2076381573869708</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>10074</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3742406542646427</v>
+        <v>0.2242406542646427</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>10075</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3307673727850776</v>
+        <v>0.1807673727850776</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>10076</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4083940837567978</v>
+        <v>0.2583940837567978</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>10077</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3359203007174338</v>
+        <v>0.1859203007174339</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>10078</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3902101349642857</v>
+        <v>0.2402101349642858</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>10079</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3837501152360844</v>
+        <v>0.2337501152360844</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>10080</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3652402395846032</v>
+        <v>0.2152402395846032</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>10081</v>
       </c>
       <c r="B82" t="n">
-        <v>0.401970403580291</v>
+        <v>0.251970403580291</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>10082</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3944730813839947</v>
+        <v>0.2444730813839947</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>10083</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3499198045460318</v>
+        <v>0.1999198045460318</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>10084</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3925235045971164</v>
+        <v>0.2425235045971164</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>10085</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3424816669691264</v>
+        <v>0.1924816669691264</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>10086</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4109769551345899</v>
+        <v>0.2609769551345898</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>10087</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4029303286608332</v>
+        <v>0.2529303286608332</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>10088</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3813990747686605</v>
+        <v>0.2313990747686605</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>10089</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3408186836684259</v>
+        <v>0.1908186836684259</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>10090</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3925375025213891</v>
+        <v>0.2425375025213891</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>10091</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3980221163673678</v>
+        <v>0.2480221163673678</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>10092</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3666511016202247</v>
+        <v>0.2166511016202248</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>10093</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3667438741688095</v>
+        <v>0.2167438741688095</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>10094</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3734376741051323</v>
+        <v>0.2234376741051323</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>10095</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2787546587980556</v>
+        <v>0.1287546587980556</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>10096</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3952745962528932</v>
+        <v>0.2452745962528932</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>10097</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3626872890962519</v>
+        <v>0.2126872890962519</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>10098</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2877962360232144</v>
+        <v>0.1377962360232144</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>10099</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3644281683994577</v>
+        <v>0.2144281683994577</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>10100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3952370671425913</v>
+        <v>0.2452370671425913</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>10101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3237733751292989</v>
+        <v>0.1737733751292989</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>10102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4055863260517023</v>
+        <v>0.2555863260517023</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>10103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3227258037490476</v>
+        <v>0.1727258037490476</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>10104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2960740196941799</v>
+        <v>0.1460740196941799</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>10105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3791667600036508</v>
+        <v>0.2291667600036509</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>10106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3538592062453306</v>
+        <v>0.2038592062453306</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>10107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3355866251521296</v>
+        <v>0.1855866251521296</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>10108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3585773766458729</v>
+        <v>0.2085773766458729</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>10109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3477956832723544</v>
+        <v>0.1977956832723544</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>10110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3749617003973281</v>
+        <v>0.2249617003973281</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>10111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3874502351064616</v>
+        <v>0.2374502351064616</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>10112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3876968942021563</v>
+        <v>0.2376968942021563</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>10113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3899133809994035</v>
+        <v>0.2399133809994035</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>10114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3628237806491402</v>
+        <v>0.2128237806491402</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>10115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3522647568137734</v>
+        <v>0.2022647568137735</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>10116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4058031493851852</v>
+        <v>0.2558031493851852</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>10117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3111094218144841</v>
+        <v>0.1611094218144841</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>10118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3589398413641882</v>
+        <v>0.2089398413641882</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>10119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3583221461114311</v>
+        <v>0.2083221461114311</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>10120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3548460264323461</v>
+        <v>0.2048460264323461</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>10121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3711394322641005</v>
+        <v>0.2211394322641005</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>10122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3859814056958202</v>
+        <v>0.2359814056958202</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>10123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3611316128907012</v>
+        <v>0.2111316128907011</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>10124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345265526883931</v>
+        <v>0.195265526883931</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>10125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3440242570367842</v>
+        <v>0.1940242570367842</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>10126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3485859203033995</v>
+        <v>0.1985859203033995</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>10127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3610101162099233</v>
+        <v>0.2110101162099233</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>10128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3704603659841339</v>
+        <v>0.2204603659841339</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>10129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3686626130156614</v>
+        <v>0.2186626130156614</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>10130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3575760122779497</v>
+        <v>0.2075760122779496</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>10131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3860158754407012</v>
+        <v>0.2360158754407012</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>10132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3724910876336505</v>
+        <v>0.2224910876336505</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>10133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.372053125221508</v>
+        <v>0.222053125221508</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>10134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3715485600104499</v>
+        <v>0.2215485600104499</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>10135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3859502795134259</v>
+        <v>0.2359502795134259</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>10136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.2827388522573148</v>
+        <v>0.1327388522573148</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>10137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3193656517199075</v>
+        <v>0.1693656517199075</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>10138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3842923135758927</v>
+        <v>0.2342923135758927</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>10139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3540606260832672</v>
+        <v>0.2040606260832672</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>10140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3926042936943783</v>
+        <v>0.2426042936943784</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>10141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.412370648638016</v>
+        <v>0.262370648638016</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>10142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3872224618343785</v>
+        <v>0.2372224618343785</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>10143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3313807880059523</v>
+        <v>0.1813807880059523</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>10144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4129923428821825</v>
+        <v>0.2629923428821825</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>10145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3462656020182275</v>
+        <v>0.1962656020182275</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>10146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3607940911756218</v>
+        <v>0.2107940911756218</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>10147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3901872770226189</v>
+        <v>0.2401872770226189</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>10148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.4121341857511904</v>
+        <v>0.2621341857511904</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>10149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.397644035588373</v>
+        <v>0.2476440355883731</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>10150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3394206094944299</v>
+        <v>0.1894206094944299</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>10151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4414270896236243</v>
+        <v>0.2914270896236243</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>10152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.318503914423961</v>
+        <v>0.168503914423961</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>10153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3996711699960186</v>
+        <v>0.2496711699960187</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>10154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4055627701335061</v>
+        <v>0.2555627701335061</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>10155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3832078722925266</v>
+        <v>0.2332078722925266</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>10156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3527729741780027</v>
+        <v>0.2027729741780027</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>10157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3996410756315144</v>
+        <v>0.2496410756315144</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>10158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3689308951626984</v>
+        <v>0.2189308951626984</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>10159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4166371299447222</v>
+        <v>0.2666371299447223</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>10160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4061876132760845</v>
+        <v>0.2561876132760845</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>10161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.390839293148034</v>
+        <v>0.240839293148034</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>10162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3804532312137267</v>
+        <v>0.2304532312137267</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>10163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3639552955454367</v>
+        <v>0.2139552955454367</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>10164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3292369584342857</v>
+        <v>0.1792369584342857</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>10165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.3374525029461098</v>
+        <v>0.1874525029461099</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>10166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3732854343789238</v>
+        <v>0.2232854343789238</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>10167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3592624245537636</v>
+        <v>0.2092624245537636</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>10168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3486097770438302</v>
+        <v>0.1986097770438302</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>10169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3882347528687963</v>
+        <v>0.2382347528687963</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>10170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3606148037461904</v>
+        <v>0.2106148037461904</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>10171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3858628166233731</v>
+        <v>0.2358628166233731</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>10172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.3769702932119577</v>
+        <v>0.2269702932119577</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>10173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.3519008868457936</v>
+        <v>0.2019008868457936</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>10174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3218444498887301</v>
+        <v>0.1718444498887301</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>10175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3609543532105472</v>
+        <v>0.2109543532105472</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>10176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4046710855976801</v>
+        <v>0.25467108559768</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>10177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3676103561021427</v>
+        <v>0.2176103561021426</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>10178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3232599440006217</v>
+        <v>0.1732599440006217</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>10179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.3433992279906807</v>
+        <v>0.1933992279906807</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>10180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.3677073494517195</v>
+        <v>0.2177073494517195</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>10181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3616709370943831</v>
+        <v>0.2116709370943831</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>10182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.3832836936704496</v>
+        <v>0.2332836936704496</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>10183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3424171536877512</v>
+        <v>0.1924171536877512</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>10184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3607025178071165</v>
+        <v>0.2107025178071165</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>10185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3614852516372486</v>
+        <v>0.2114852516372486</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>10186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4063551311637195</v>
+        <v>0.2563551311637195</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>10187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3408877805071956</v>
+        <v>0.1908877805071956</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>10188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3467849865294313</v>
+        <v>0.1967849865294313</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>10189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4116111520635316</v>
+        <v>0.2616111520635316</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>10190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4044593457178042</v>
+        <v>0.2544593457178042</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>10191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.419260090559365</v>
+        <v>0.269260090559365</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>10192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.3904176129712674</v>
+        <v>0.2404176129712675</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>10193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.3742748530456879</v>
+        <v>0.2242748530456879</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>10194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.3342342079114684</v>
+        <v>0.1842342079114684</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>10195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.3544591062349207</v>
+        <v>0.2044591062349207</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>10196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.3610270721942856</v>
+        <v>0.2110270721942856</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>10197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4034271716723677</v>
+        <v>0.2534271716723677</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>10198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.351826673260214</v>
+        <v>0.201826673260214</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>10199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.3886279249847617</v>
+        <v>0.2386279249847618</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>10200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.342185810967553</v>
+        <v>0.192185810967553</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>10201</v>
       </c>
       <c r="B202" t="n">
-        <v>0.377660794013373</v>
+        <v>0.227660794013373</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>10202</v>
       </c>
       <c r="B203" t="n">
-        <v>0.3377492560743387</v>
+        <v>0.1877492560743387</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>10203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.3567297275533621</v>
+        <v>0.2067297275533621</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>10204</v>
       </c>
       <c r="B205" t="n">
-        <v>0.3423260850257408</v>
+        <v>0.1923260850257408</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>10205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.3906507390533862</v>
+        <v>0.2406507390533862</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>10206</v>
       </c>
       <c r="B207" t="n">
-        <v>0.3573547374398808</v>
+        <v>0.2073547374398808</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>10207</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3037752825989947</v>
+        <v>0.1537752825989947</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>10208</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3546086598920106</v>
+        <v>0.2046086598920106</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>10209</v>
       </c>
       <c r="B210" t="n">
-        <v>0.3730915853590345</v>
+        <v>0.2230915853590345</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>10210</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3497470019043255</v>
+        <v>0.1997470019043255</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>10211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.4079591361612926</v>
+        <v>0.2579591361612926</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>10212</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3900980811792378</v>
+        <v>0.2400980811792378</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>10213</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3549086462107275</v>
+        <v>0.2049086462107275</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>10214</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3436169711353415</v>
+        <v>0.1936169711353415</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>10215</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3945185436757408</v>
+        <v>0.2445185436757408</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>10216</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3615684099100132</v>
+        <v>0.2115684099100132</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>10217</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3715842062482078</v>
+        <v>0.2215842062482077</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>10218</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3838563722917461</v>
+        <v>0.2338563722917461</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>10219</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3737880282614286</v>
+        <v>0.2237880282614286</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>10220</v>
       </c>
       <c r="B221" t="n">
-        <v>0.4340020668905784</v>
+        <v>0.2840020668905784</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>10221</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3648962840951313</v>
+        <v>0.2148962840951313</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>10222</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3632811278074916</v>
+        <v>0.2132811278074916</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>10223</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4081471529405557</v>
+        <v>0.2581471529405557</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>10224</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3834369523607671</v>
+        <v>0.2334369523607672</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>10225</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3634505876554365</v>
+        <v>0.2134505876554365</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>10226</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3721226538320634</v>
+        <v>0.2221226538320635</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>10227</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3560314526492284</v>
+        <v>0.2060314526492284</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>10228</v>
       </c>
       <c r="B229" t="n">
-        <v>0.332774610610119</v>
+        <v>0.182774610610119</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>10229</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3694585355859392</v>
+        <v>0.2194585355859392</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>10230</v>
       </c>
       <c r="B231" t="n">
-        <v>0.4024801294186974</v>
+        <v>0.2524801294186974</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>10231</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3822993291154101</v>
+        <v>0.2322993291154101</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>10232</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3360341958440739</v>
+        <v>0.1860341958440739</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>10233</v>
       </c>
       <c r="B234" t="n">
-        <v>0.308516594735095</v>
+        <v>0.158516594735095</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>10234</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3806560787922222</v>
+        <v>0.2306560787922222</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>10235</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3399527739088888</v>
+        <v>0.1899527739088888</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>10236</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3669631032045239</v>
+        <v>0.2169631032045238</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>10237</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3574825949457547</v>
+        <v>0.2074825949457548</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>10238</v>
       </c>
       <c r="B239" t="n">
-        <v>0.381628871441111</v>
+        <v>0.2316288714411111</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>10239</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3870889381527118</v>
+        <v>0.2370889381527118</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>10240</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3492308250834169</v>
+        <v>0.1992308250834169</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>10241</v>
       </c>
       <c r="B242" t="n">
-        <v>0.4125304821125794</v>
+        <v>0.2625304821125794</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>10242</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3934975749376288</v>
+        <v>0.2434975749376288</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>10243</v>
       </c>
       <c r="B244" t="n">
-        <v>0.4092041765644574</v>
+        <v>0.2592041765644574</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>10244</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3400664929032937</v>
+        <v>0.1900664929032937</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>10245</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3637545394026718</v>
+        <v>0.2137545394026718</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>10246</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3650816063885137</v>
+        <v>0.2150816063885137</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>10247</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3247890338613889</v>
+        <v>0.1747890338613889</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>10248</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3837172513473676</v>
+        <v>0.2337172513473676</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>10249</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3935114739178042</v>
+        <v>0.2435114739178042</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>10250</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3442369752800795</v>
+        <v>0.1942369752800795</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>10251</v>
       </c>
       <c r="B252" t="n">
-        <v>0.3850874817410846</v>
+        <v>0.2350874817410847</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>10252</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3221188596427632</v>
+        <v>0.1721188596427632</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>10253</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3553305456978678</v>
+        <v>0.2053305456978678</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>10254</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3445091298831433</v>
+        <v>0.1945091298831433</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>10255</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3249201045907143</v>
+        <v>0.1749201045907143</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>10256</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3555996832799206</v>
+        <v>0.2055996832799206</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>10257</v>
       </c>
       <c r="B258" t="n">
-        <v>0.3166448172785582</v>
+        <v>0.1666448172785582</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>10258</v>
       </c>
       <c r="B259" t="n">
-        <v>0.3539722213627248</v>
+        <v>0.2039722213627248</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>10259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.3735390516661905</v>
+        <v>0.2235390516661905</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>10260</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3370814054886508</v>
+        <v>0.1870814054886508</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>10261</v>
       </c>
       <c r="B262" t="n">
-        <v>0.3773171599047221</v>
+        <v>0.2273171599047221</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>10262</v>
       </c>
       <c r="B263" t="n">
-        <v>0.419030315549656</v>
+        <v>0.269030315549656</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>10263</v>
       </c>
       <c r="B264" t="n">
-        <v>0.3761302695763094</v>
+        <v>0.2261302695763094</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>10264</v>
       </c>
       <c r="B265" t="n">
-        <v>0.3622233526995636</v>
+        <v>0.2122233526995636</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>10265</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3624544715428571</v>
+        <v>0.2124544715428571</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>10266</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3916789259149074</v>
+        <v>0.2416789259149074</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>10267</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3458547909741004</v>
+        <v>0.1958547909741004</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>10268</v>
       </c>
       <c r="B269" t="n">
-        <v>0.3560428233713095</v>
+        <v>0.2060428233713096</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>10269</v>
       </c>
       <c r="B270" t="n">
-        <v>0.3496161290495166</v>
+        <v>0.1996161290495166</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>10270</v>
       </c>
       <c r="B271" t="n">
-        <v>0.385447428484365</v>
+        <v>0.235447428484365</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>10271</v>
       </c>
       <c r="B272" t="n">
-        <v>0.3262994326868255</v>
+        <v>0.1762994326868255</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>10272</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3865891619988889</v>
+        <v>0.236589161998889</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>10273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.35270570766123</v>
+        <v>0.20270570766123</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>10274</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3562968342947355</v>
+        <v>0.2062968342947355</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>10275</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3621492351788095</v>
+        <v>0.2121492351788095</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>10276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.3745872711388889</v>
+        <v>0.2245872711388889</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>10277</v>
       </c>
       <c r="B278" t="n">
-        <v>0.3849876834661111</v>
+        <v>0.2349876834661111</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>10278</v>
       </c>
       <c r="B279" t="n">
-        <v>0.3489891758398772</v>
+        <v>0.1989891758398772</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>10279</v>
       </c>
       <c r="B280" t="n">
-        <v>0.4174562118161405</v>
+        <v>0.2674562118161404</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>10280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.3839547906986375</v>
+        <v>0.2339547906986375</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>10281</v>
       </c>
       <c r="B282" t="n">
-        <v>0.3896878708467989</v>
+        <v>0.2396878708467989</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>10282</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3549323413482408</v>
+        <v>0.2049323413482408</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>10283</v>
       </c>
       <c r="B284" t="n">
-        <v>0.383501121765053</v>
+        <v>0.233501121765053</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>10284</v>
       </c>
       <c r="B285" t="n">
-        <v>0.4050813405243384</v>
+        <v>0.2550813405243385</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>10285</v>
       </c>
       <c r="B286" t="n">
-        <v>0.3538938326867063</v>
+        <v>0.2038938326867063</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>10286</v>
       </c>
       <c r="B287" t="n">
-        <v>0.3710304677218519</v>
+        <v>0.2210304677218519</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>10287</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3758615629558599</v>
+        <v>0.2258615629558599</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>10288</v>
       </c>
       <c r="B289" t="n">
-        <v>0.355207406687553</v>
+        <v>0.205207406687553</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>10289</v>
       </c>
       <c r="B290" t="n">
-        <v>0.4111227404417857</v>
+        <v>0.2611227404417857</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>10290</v>
       </c>
       <c r="B291" t="n">
-        <v>0.4067984715889021</v>
+        <v>0.2567984715889021</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>10291</v>
       </c>
       <c r="B292" t="n">
-        <v>0.4137571743751322</v>
+        <v>0.2637571743751322</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>10292</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3771360352803957</v>
+        <v>0.2271360352803957</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>10293</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3839270938543916</v>
+        <v>0.2339270938543916</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>10294</v>
       </c>
       <c r="B295" t="n">
-        <v>0.338715325691627</v>
+        <v>0.188715325691627</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>10295</v>
       </c>
       <c r="B296" t="n">
-        <v>0.3810835206701986</v>
+        <v>0.2310835206701986</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>10296</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3848837338169047</v>
+        <v>0.2348837338169047</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>10297</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3592087076981001</v>
+        <v>0.2092087076981001</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>10298</v>
       </c>
       <c r="B299" t="n">
-        <v>0.3945988757507873</v>
+        <v>0.2445988757507873</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>10299</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3779006804741269</v>
+        <v>0.2279006804741269</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>10300</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3892398664559126</v>
+        <v>0.2392398664559126</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>10301</v>
       </c>
       <c r="B302" t="n">
-        <v>0.3166757203097619</v>
+        <v>0.1666757203097619</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>10302</v>
       </c>
       <c r="B303" t="n">
-        <v>0.4061810016799208</v>
+        <v>0.2561810016799208</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>10303</v>
       </c>
       <c r="B304" t="n">
-        <v>0.293648617401194</v>
+        <v>0.143648617401194</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>10304</v>
       </c>
       <c r="B305" t="n">
-        <v>0.345848050461283</v>
+        <v>0.195848050461283</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>10305</v>
       </c>
       <c r="B306" t="n">
-        <v>0.3971359982495372</v>
+        <v>0.2471359982495372</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>10306</v>
       </c>
       <c r="B307" t="n">
-        <v>0.3603176092130555</v>
+        <v>0.2103176092130555</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>10307</v>
       </c>
       <c r="B308" t="n">
-        <v>0.3650170510261904</v>
+        <v>0.2150170510261905</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>10308</v>
       </c>
       <c r="B309" t="n">
-        <v>0.400052070673783</v>
+        <v>0.250052070673783</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>10309</v>
       </c>
       <c r="B310" t="n">
-        <v>0.4237083687121427</v>
+        <v>0.2737083687121427</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>10310</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3644228145191798</v>
+        <v>0.2144228145191798</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>10311</v>
       </c>
       <c r="B312" t="n">
-        <v>0.3991417437064106</v>
+        <v>0.2491417437064107</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>10312</v>
       </c>
       <c r="B313" t="n">
-        <v>0.405146444112975</v>
+        <v>0.2551464441129749</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>10313</v>
       </c>
       <c r="B314" t="n">
-        <v>0.4137587144449603</v>
+        <v>0.2637587144449602</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>10314</v>
       </c>
       <c r="B315" t="n">
-        <v>0.3327366775124314</v>
+        <v>0.1827366775124314</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>10315</v>
       </c>
       <c r="B316" t="n">
-        <v>0.3837013569985317</v>
+        <v>0.2337013569985317</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>10316</v>
       </c>
       <c r="B317" t="n">
-        <v>0.342996235486389</v>
+        <v>0.192996235486389</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>10317</v>
       </c>
       <c r="B318" t="n">
-        <v>0.3487251267876671</v>
+        <v>0.1987251267876671</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>10318</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3668090048909788</v>
+        <v>0.2168090048909788</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>10319</v>
       </c>
       <c r="B320" t="n">
-        <v>0.3876277140280422</v>
+        <v>0.2376277140280422</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>10320</v>
       </c>
       <c r="B321" t="n">
-        <v>0.4073332676188097</v>
+        <v>0.2573332676188098</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>10321</v>
       </c>
       <c r="B322" t="n">
-        <v>0.3337335205402777</v>
+        <v>0.1837335205402778</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>10322</v>
       </c>
       <c r="B323" t="n">
-        <v>0.3863713381674075</v>
+        <v>0.2363713381674075</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>10323</v>
       </c>
       <c r="B324" t="n">
-        <v>0.3735697987773547</v>
+        <v>0.2235697987773547</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>10324</v>
       </c>
       <c r="B325" t="n">
-        <v>0.3953169153017955</v>
+        <v>0.2453169153017955</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>10325</v>
       </c>
       <c r="B326" t="n">
-        <v>0.3436553368756084</v>
+        <v>0.1936553368756084</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>10326</v>
       </c>
       <c r="B327" t="n">
-        <v>0.3954537220716269</v>
+        <v>0.2454537220716269</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>10327</v>
       </c>
       <c r="B328" t="n">
-        <v>0.3536008299939611</v>
+        <v>0.2036008299939611</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>10328</v>
       </c>
       <c r="B329" t="n">
-        <v>0.3606445700969408</v>
+        <v>0.2106445700969409</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>10329</v>
       </c>
       <c r="B330" t="n">
-        <v>0.4162622382719048</v>
+        <v>0.2662622382719048</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>10330</v>
       </c>
       <c r="B331" t="n">
-        <v>0.3882644095276587</v>
+        <v>0.2382644095276587</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>10331</v>
       </c>
       <c r="B332" t="n">
-        <v>0.405443277902672</v>
+        <v>0.255443277902672</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>10332</v>
       </c>
       <c r="B333" t="n">
-        <v>0.3626175920389684</v>
+        <v>0.2126175920389684</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>10333</v>
       </c>
       <c r="B334" t="n">
-        <v>0.2943430246532713</v>
+        <v>0.1443430246532714</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>10334</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3575526823099602</v>
+        <v>0.2075526823099602</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>10335</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3504241673177977</v>
+        <v>0.2004241673177977</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>10336</v>
       </c>
       <c r="B337" t="n">
-        <v>0.3410284633932937</v>
+        <v>0.1910284633932937</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>10337</v>
       </c>
       <c r="B338" t="n">
-        <v>0.4238100765740078</v>
+        <v>0.2738100765740079</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>10338</v>
       </c>
       <c r="B339" t="n">
-        <v>0.3652850506090211</v>
+        <v>0.2152850506090211</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>10339</v>
       </c>
       <c r="B340" t="n">
-        <v>0.3861212750264926</v>
+        <v>0.2361212750264926</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>10340</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3820732616844708</v>
+        <v>0.2320732616844707</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>10341</v>
       </c>
       <c r="B342" t="n">
-        <v>0.3276761102941005</v>
+        <v>0.1776761102941005</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>10342</v>
       </c>
       <c r="B343" t="n">
-        <v>0.3877190839083334</v>
+        <v>0.2377190839083335</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>10343</v>
       </c>
       <c r="B344" t="n">
-        <v>0.3883758923137265</v>
+        <v>0.2383758923137266</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>10344</v>
       </c>
       <c r="B345" t="n">
-        <v>0.3891164138249458</v>
+        <v>0.2391164138249458</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>10345</v>
       </c>
       <c r="B346" t="n">
-        <v>0.3290555556993254</v>
+        <v>0.1790555556993254</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>10346</v>
       </c>
       <c r="B347" t="n">
-        <v>0.3849890986507936</v>
+        <v>0.2349890986507935</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>10347</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3778644660092786</v>
+        <v>0.2278644660092786</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>10348</v>
       </c>
       <c r="B349" t="n">
-        <v>0.3540171400237039</v>
+        <v>0.2040171400237039</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>10349</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3699355244112699</v>
+        <v>0.2199355244112699</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>10350</v>
       </c>
       <c r="B351" t="n">
-        <v>0.3263597931849237</v>
+        <v>0.1763597931849237</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>10351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.3950036274833173</v>
+        <v>0.2450036274833173</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>10352</v>
       </c>
       <c r="B353" t="n">
-        <v>0.3863754261713097</v>
+        <v>0.2363754261713097</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>10353</v>
       </c>
       <c r="B354" t="n">
-        <v>0.3654224842793651</v>
+        <v>0.2154224842793651</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>10354</v>
       </c>
       <c r="B355" t="n">
-        <v>0.3256449705767339</v>
+        <v>0.1756449705767339</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>10355</v>
       </c>
       <c r="B356" t="n">
-        <v>0.3897125523630554</v>
+        <v>0.2397125523630554</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>10356</v>
       </c>
       <c r="B357" t="n">
-        <v>0.3493315712596429</v>
+        <v>0.1993315712596429</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>10357</v>
       </c>
       <c r="B358" t="n">
-        <v>0.3565756686330662</v>
+        <v>0.2065756686330663</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>10358</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3948502712083068</v>
+        <v>0.2448502712083069</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>10359</v>
       </c>
       <c r="B360" t="n">
-        <v>0.3724530489952778</v>
+        <v>0.2224530489952778</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>10360</v>
       </c>
       <c r="B361" t="n">
-        <v>0.3657271752266342</v>
+        <v>0.2157271752266342</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>10361</v>
       </c>
       <c r="B362" t="n">
-        <v>0.3607582007331879</v>
+        <v>0.2107582007331879</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>10362</v>
       </c>
       <c r="B363" t="n">
-        <v>0.4114651325077314</v>
+        <v>0.2614651325077314</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>10363</v>
       </c>
       <c r="B364" t="n">
-        <v>0.4062846876925132</v>
+        <v>0.2562846876925132</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>10364</v>
       </c>
       <c r="B365" t="n">
-        <v>0.4087077406519046</v>
+        <v>0.2587077406519047</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>10365</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3916777536144314</v>
+        <v>0.2416777536144314</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>10366</v>
       </c>
       <c r="B367" t="n">
-        <v>0.3025711608536171</v>
+        <v>0.1525711608536171</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>10367</v>
       </c>
       <c r="B368" t="n">
-        <v>0.4007132467654895</v>
+        <v>0.2507132467654895</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>10368</v>
       </c>
       <c r="B369" t="n">
-        <v>0.3935219217671428</v>
+        <v>0.2435219217671428</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>10369</v>
       </c>
       <c r="B370" t="n">
-        <v>0.3325217179642989</v>
+        <v>0.1825217179642989</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>10370</v>
       </c>
       <c r="B371" t="n">
-        <v>0.3923000027570105</v>
+        <v>0.2423000027570106</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>10371</v>
       </c>
       <c r="B372" t="n">
-        <v>0.3400485077448941</v>
+        <v>0.1900485077448942</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>10372</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3710336587055651</v>
+        <v>0.2210336587055651</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>10373</v>
       </c>
       <c r="B374" t="n">
-        <v>0.3903584671544444</v>
+        <v>0.2403584671544444</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>10374</v>
       </c>
       <c r="B375" t="n">
-        <v>0.3448668850843321</v>
+        <v>0.1948668850843321</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>10375</v>
       </c>
       <c r="B376" t="n">
-        <v>0.4004602305829462</v>
+        <v>0.2504602305829462</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>10376</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2812702912121668</v>
+        <v>0.1312702912121669</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>10377</v>
       </c>
       <c r="B378" t="n">
-        <v>0.3777459829403705</v>
+        <v>0.2277459829403705</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>10378</v>
       </c>
       <c r="B379" t="n">
-        <v>0.3669835619099736</v>
+        <v>0.2169835619099736</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>10379</v>
       </c>
       <c r="B380" t="n">
-        <v>0.3971728045667063</v>
+        <v>0.2471728045667064</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>10380</v>
       </c>
       <c r="B381" t="n">
-        <v>0.4258347310654099</v>
+        <v>0.2758347310654099</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>10381</v>
       </c>
       <c r="B382" t="n">
-        <v>0.3411246408112609</v>
+        <v>0.1911246408112609</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>10382</v>
       </c>
       <c r="B383" t="n">
-        <v>0.3314404052819708</v>
+        <v>0.1814404052819708</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>10383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.3551953657321604</v>
+        <v>0.2051953657321604</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>10384</v>
       </c>
       <c r="B385" t="n">
-        <v>0.4075414503194141</v>
+        <v>0.2575414503194142</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>10385</v>
       </c>
       <c r="B386" t="n">
-        <v>0.3577520687850265</v>
+        <v>0.2077520687850265</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>10386</v>
       </c>
       <c r="B387" t="n">
-        <v>0.3714751689860341</v>
+        <v>0.221475168986034</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>10387</v>
       </c>
       <c r="B388" t="n">
-        <v>0.3800116608268254</v>
+        <v>0.2300116608268254</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>10388</v>
       </c>
       <c r="B389" t="n">
-        <v>0.4178136967558335</v>
+        <v>0.2678136967558334</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>10389</v>
       </c>
       <c r="B390" t="n">
-        <v>0.3871992286425398</v>
+        <v>0.2371992286425397</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>10390</v>
       </c>
       <c r="B391" t="n">
-        <v>0.3721406202210318</v>
+        <v>0.2221406202210318</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>10391</v>
       </c>
       <c r="B392" t="n">
-        <v>0.3501287955632748</v>
+        <v>0.2001287955632748</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>10392</v>
       </c>
       <c r="B393" t="n">
-        <v>0.4076060643229233</v>
+        <v>0.2576060643229234</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>10393</v>
       </c>
       <c r="B394" t="n">
-        <v>0.393737763687049</v>
+        <v>0.2437377636870491</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>10394</v>
       </c>
       <c r="B395" t="n">
-        <v>0.3396297098563227</v>
+        <v>0.1896297098563227</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>10395</v>
       </c>
       <c r="B396" t="n">
-        <v>0.3961120701347621</v>
+        <v>0.2461120701347621</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>10396</v>
       </c>
       <c r="B397" t="n">
-        <v>0.4098865347945502</v>
+        <v>0.2598865347945502</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>10397</v>
       </c>
       <c r="B398" t="n">
-        <v>0.3948940882095635</v>
+        <v>0.2448940882095635</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>10398</v>
       </c>
       <c r="B399" t="n">
-        <v>0.3863023526161771</v>
+        <v>0.2363023526161771</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>10399</v>
       </c>
       <c r="B400" t="n">
-        <v>0.3584089082235846</v>
+        <v>0.2084089082235846</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>10400</v>
       </c>
       <c r="B401" t="n">
-        <v>0.2958037676304762</v>
+        <v>0.1458037676304762</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>10401</v>
       </c>
       <c r="B402" t="n">
-        <v>0.3438706688092701</v>
+        <v>0.1938706688092701</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>10402</v>
       </c>
       <c r="B403" t="n">
-        <v>0.3816783062616667</v>
+        <v>0.2316783062616666</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>10403</v>
       </c>
       <c r="B404" t="n">
-        <v>0.3887406923777645</v>
+        <v>0.2387406923777645</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>10404</v>
       </c>
       <c r="B405" t="n">
-        <v>0.4028819342460451</v>
+        <v>0.2528819342460451</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>10405</v>
       </c>
       <c r="B406" t="n">
-        <v>0.407245324590595</v>
+        <v>0.257245324590595</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>10406</v>
       </c>
       <c r="B407" t="n">
-        <v>0.3665191473050289</v>
+        <v>0.2165191473050289</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>10407</v>
       </c>
       <c r="B408" t="n">
-        <v>0.3752507479595636</v>
+        <v>0.2252507479595636</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>10408</v>
       </c>
       <c r="B409" t="n">
-        <v>0.407615527411852</v>
+        <v>0.257615527411852</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>10409</v>
       </c>
       <c r="B410" t="n">
-        <v>0.3985474785161638</v>
+        <v>0.2485474785161638</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>10410</v>
       </c>
       <c r="B411" t="n">
-        <v>0.3548749845154762</v>
+        <v>0.2048749845154762</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>10411</v>
       </c>
       <c r="B412" t="n">
-        <v>0.3956610565741317</v>
+        <v>0.2456610565741317</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>10412</v>
       </c>
       <c r="B413" t="n">
-        <v>0.3739751348728837</v>
+        <v>0.2239751348728837</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>10413</v>
       </c>
       <c r="B414" t="n">
-        <v>0.3716122294769444</v>
+        <v>0.2216122294769444</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>10414</v>
       </c>
       <c r="B415" t="n">
-        <v>0.3802977921351985</v>
+        <v>0.2302977921351985</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>10415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.3465023492443182</v>
+        <v>0.1965023492443182</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>10416</v>
       </c>
       <c r="B417" t="n">
-        <v>0.3604149091231482</v>
+        <v>0.2104149091231482</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>10417</v>
       </c>
       <c r="B418" t="n">
-        <v>0.3069878914659523</v>
+        <v>0.1569878914659523</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>10418</v>
       </c>
       <c r="B419" t="n">
-        <v>0.362369508052434</v>
+        <v>0.212369508052434</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>10419</v>
       </c>
       <c r="B420" t="n">
-        <v>0.4199217955720369</v>
+        <v>0.2699217955720369</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>10420</v>
       </c>
       <c r="B421" t="n">
-        <v>0.3659971621407672</v>
+        <v>0.2159971621407672</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>10421</v>
       </c>
       <c r="B422" t="n">
-        <v>0.3423520365506216</v>
+        <v>0.1923520365506216</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>10422</v>
       </c>
       <c r="B423" t="n">
-        <v>0.3754897785623015</v>
+        <v>0.2254897785623015</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>10423</v>
       </c>
       <c r="B424" t="n">
-        <v>0.3812724408994577</v>
+        <v>0.2312724408994577</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>10424</v>
       </c>
       <c r="B425" t="n">
-        <v>0.3196787600018254</v>
+        <v>0.1696787600018254</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>10425</v>
       </c>
       <c r="B426" t="n">
-        <v>0.3822052491961747</v>
+        <v>0.2322052491961747</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>10426</v>
       </c>
       <c r="B427" t="n">
-        <v>0.3829921555407405</v>
+        <v>0.2329921555407405</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>10427</v>
       </c>
       <c r="B428" t="n">
-        <v>0.402804667052209</v>
+        <v>0.252804667052209</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>10428</v>
       </c>
       <c r="B429" t="n">
-        <v>0.4034599598868255</v>
+        <v>0.2534599598868255</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>10429</v>
       </c>
       <c r="B430" t="n">
-        <v>0.3810500828834128</v>
+        <v>0.2310500828834128</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>10430</v>
       </c>
       <c r="B431" t="n">
-        <v>0.3736529185998015</v>
+        <v>0.2236529185998015</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>10431</v>
       </c>
       <c r="B432" t="n">
-        <v>0.3989635638194047</v>
+        <v>0.2489635638194047</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>10432</v>
       </c>
       <c r="B433" t="n">
-        <v>0.351432794147037</v>
+        <v>0.201432794147037</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>10433</v>
       </c>
       <c r="B434" t="n">
-        <v>0.3393101770274206</v>
+        <v>0.1893101770274206</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>10434</v>
       </c>
       <c r="B435" t="n">
-        <v>0.3941335976441162</v>
+        <v>0.2441335976441161</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>10435</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3359613986856824</v>
+        <v>0.1859613986856824</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>10436</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3761989333503174</v>
+        <v>0.2261989333503174</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>10437</v>
       </c>
       <c r="B438" t="n">
-        <v>0.3768162161419975</v>
+        <v>0.2268162161419974</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>10438</v>
       </c>
       <c r="B439" t="n">
-        <v>0.3786238964201057</v>
+        <v>0.2286238964201058</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>10439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3318219774794445</v>
+        <v>0.1818219774794445</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>10440</v>
       </c>
       <c r="B441" t="n">
-        <v>0.4035829412322641</v>
+        <v>0.2535829412322642</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>10441</v>
       </c>
       <c r="B442" t="n">
-        <v>0.3687099932705595</v>
+        <v>0.2187099932705595</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>10442</v>
       </c>
       <c r="B443" t="n">
-        <v>0.3724043434942461</v>
+        <v>0.2224043434942461</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>10443</v>
       </c>
       <c r="B444" t="n">
-        <v>0.4104857552487576</v>
+        <v>0.2604857552487577</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>10444</v>
       </c>
       <c r="B445" t="n">
-        <v>0.3863341001381313</v>
+        <v>0.2363341001381313</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>10445</v>
       </c>
       <c r="B446" t="n">
-        <v>0.3796122193058332</v>
+        <v>0.2296122193058333</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>10446</v>
       </c>
       <c r="B447" t="n">
-        <v>0.4066177240527777</v>
+        <v>0.2566177240527777</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>10447</v>
       </c>
       <c r="B448" t="n">
-        <v>0.3279968295672222</v>
+        <v>0.1779968295672222</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>10448</v>
       </c>
       <c r="B449" t="n">
-        <v>0.3847377282480423</v>
+        <v>0.2347377282480423</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>10449</v>
       </c>
       <c r="B450" t="n">
-        <v>0.3951433303371827</v>
+        <v>0.2451433303371827</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>10450</v>
       </c>
       <c r="B451" t="n">
-        <v>0.3507748327030555</v>
+        <v>0.2007748327030556</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>10451</v>
       </c>
       <c r="B452" t="n">
-        <v>0.4019607040810185</v>
+        <v>0.2519607040810185</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>10452</v>
       </c>
       <c r="B453" t="n">
-        <v>0.3123064413190872</v>
+        <v>0.1623064413190872</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>10453</v>
       </c>
       <c r="B454" t="n">
-        <v>0.3859472008030951</v>
+        <v>0.2359472008030951</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>10454</v>
       </c>
       <c r="B455" t="n">
-        <v>0.3627477363586606</v>
+        <v>0.2127477363586606</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>10455</v>
       </c>
       <c r="B456" t="n">
-        <v>0.3835943022331287</v>
+        <v>0.2335943022331287</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>10456</v>
       </c>
       <c r="B457" t="n">
-        <v>0.4082602365822198</v>
+        <v>0.2582602365822198</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>10457</v>
       </c>
       <c r="B458" t="n">
-        <v>0.3979838359090342</v>
+        <v>0.2479838359090342</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>10458</v>
       </c>
       <c r="B459" t="n">
-        <v>0.4152112210709127</v>
+        <v>0.2652112210709127</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>10459</v>
       </c>
       <c r="B460" t="n">
-        <v>0.3668764799344444</v>
+        <v>0.2168764799344444</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>10460</v>
       </c>
       <c r="B461" t="n">
-        <v>0.3208268129276586</v>
+        <v>0.1708268129276586</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>10461</v>
       </c>
       <c r="B462" t="n">
-        <v>0.3124981567828438</v>
+        <v>0.1624981567828438</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>10462</v>
       </c>
       <c r="B463" t="n">
-        <v>0.3751453392898547</v>
+        <v>0.2251453392898547</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>10463</v>
       </c>
       <c r="B464" t="n">
-        <v>0.3942676577191402</v>
+        <v>0.2442676577191402</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>10464</v>
       </c>
       <c r="B465" t="n">
-        <v>0.3609256846724735</v>
+        <v>0.2109256846724735</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>10465</v>
       </c>
       <c r="B466" t="n">
-        <v>0.4152783410530893</v>
+        <v>0.2652783410530893</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>10466</v>
       </c>
       <c r="B467" t="n">
-        <v>0.3711506591413821</v>
+        <v>0.2211506591413821</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>10467</v>
       </c>
       <c r="B468" t="n">
-        <v>0.3985776225426587</v>
+        <v>0.2485776225426587</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>10468</v>
       </c>
       <c r="B469" t="n">
-        <v>0.3608324666578173</v>
+        <v>0.2108324666578174</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>10469</v>
       </c>
       <c r="B470" t="n">
-        <v>0.315672723056442</v>
+        <v>0.165672723056442</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>10470</v>
       </c>
       <c r="B471" t="n">
-        <v>0.3613711319078044</v>
+        <v>0.2113711319078044</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>10471</v>
       </c>
       <c r="B472" t="n">
-        <v>0.3464671698287434</v>
+        <v>0.1964671698287434</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>10472</v>
       </c>
       <c r="B473" t="n">
-        <v>0.3958724162888611</v>
+        <v>0.2458724162888611</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>10473</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3570321376272617</v>
+        <v>0.2070321376272617</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>10474</v>
       </c>
       <c r="B475" t="n">
-        <v>0.362325998630992</v>
+        <v>0.212325998630992</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>10475</v>
       </c>
       <c r="B476" t="n">
-        <v>0.4140991840733166</v>
+        <v>0.2640991840733166</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>10476</v>
       </c>
       <c r="B477" t="n">
-        <v>0.4042932938226191</v>
+        <v>0.2542932938226192</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>10477</v>
       </c>
       <c r="B478" t="n">
-        <v>0.3942728630490873</v>
+        <v>0.2442728630490872</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>10478</v>
       </c>
       <c r="B479" t="n">
-        <v>0.3742998832747221</v>
+        <v>0.2242998832747221</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>10479</v>
       </c>
       <c r="B480" t="n">
-        <v>0.3717056348026056</v>
+        <v>0.2217056348026056</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>10480</v>
       </c>
       <c r="B481" t="n">
-        <v>0.2773052557575132</v>
+        <v>0.1273052557575132</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>10481</v>
       </c>
       <c r="B482" t="n">
-        <v>0.3569819854793651</v>
+        <v>0.2069819854793651</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>10482</v>
       </c>
       <c r="B483" t="n">
-        <v>0.3893930314492338</v>
+        <v>0.2393930314492338</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>10483</v>
       </c>
       <c r="B484" t="n">
-        <v>0.3596408891989682</v>
+        <v>0.2096408891989683</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>10484</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4183748213207936</v>
+        <v>0.2683748213207937</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>10485</v>
       </c>
       <c r="B486" t="n">
-        <v>0.375103911574365</v>
+        <v>0.225103911574365</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>10486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.3943514341239028</v>
+        <v>0.2443514341239028</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>10487</v>
       </c>
       <c r="B488" t="n">
-        <v>0.3992230007446033</v>
+        <v>0.2492230007446033</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>10488</v>
       </c>
       <c r="B489" t="n">
-        <v>0.3857299228964816</v>
+        <v>0.2357299228964816</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>10489</v>
       </c>
       <c r="B490" t="n">
-        <v>0.3934436309904764</v>
+        <v>0.2434436309904764</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>10490</v>
       </c>
       <c r="B491" t="n">
-        <v>0.3553001700319973</v>
+        <v>0.2053001700319973</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>10491</v>
       </c>
       <c r="B492" t="n">
-        <v>0.3770008910741663</v>
+        <v>0.2270008910741663</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>10492</v>
       </c>
       <c r="B493" t="n">
-        <v>0.4071847155440741</v>
+        <v>0.2571847155440741</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>10493</v>
       </c>
       <c r="B494" t="n">
-        <v>0.3951265728413627</v>
+        <v>0.2451265728413627</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>10494</v>
       </c>
       <c r="B495" t="n">
-        <v>0.3806651759234523</v>
+        <v>0.2306651759234523</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>10495</v>
       </c>
       <c r="B496" t="n">
-        <v>0.3602062204182935</v>
+        <v>0.2102062204182936</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>10496</v>
       </c>
       <c r="B497" t="n">
-        <v>0.4049743549437568</v>
+        <v>0.2549743549437568</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>10497</v>
       </c>
       <c r="B498" t="n">
-        <v>0.3818552831737239</v>
+        <v>0.2318552831737239</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>10498</v>
       </c>
       <c r="B499" t="n">
-        <v>0.4052104021734522</v>
+        <v>0.2552104021734522</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>10499</v>
       </c>
       <c r="B500" t="n">
-        <v>0.3746115304909126</v>
+        <v>0.2246115304909126</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>10500</v>
       </c>
       <c r="B501" t="n">
-        <v>0.3814648983047402</v>
+        <v>0.2314648983047402</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>10501</v>
       </c>
       <c r="B502" t="n">
-        <v>0.3654760476408201</v>
+        <v>0.2154760476408201</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>10502</v>
       </c>
       <c r="B503" t="n">
-        <v>0.3652678023416268</v>
+        <v>0.2152678023416268</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>10503</v>
       </c>
       <c r="B504" t="n">
-        <v>0.3808544031577512</v>
+        <v>0.2308544031577512</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>10504</v>
       </c>
       <c r="B505" t="n">
-        <v>0.3182039314277777</v>
+        <v>0.1682039314277777</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>10505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3812065060216535</v>
+        <v>0.2312065060216535</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>10506</v>
       </c>
       <c r="B507" t="n">
-        <v>0.361776403475873</v>
+        <v>0.211776403475873</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>10507</v>
       </c>
       <c r="B508" t="n">
-        <v>0.3482366215290873</v>
+        <v>0.1982366215290873</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>10508</v>
       </c>
       <c r="B509" t="n">
-        <v>0.4021732752277061</v>
+        <v>0.2521732752277061</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>10509</v>
       </c>
       <c r="B510" t="n">
-        <v>0.373696250162209</v>
+        <v>0.223696250162209</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>10510</v>
       </c>
       <c r="B511" t="n">
-        <v>0.3420335840811244</v>
+        <v>0.1920335840811244</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>10511</v>
       </c>
       <c r="B512" t="n">
-        <v>0.3512671810999186</v>
+        <v>0.2012671810999186</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>10512</v>
       </c>
       <c r="B513" t="n">
-        <v>0.3477191422459259</v>
+        <v>0.1977191422459259</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>10513</v>
       </c>
       <c r="B514" t="n">
-        <v>0.3678389909848414</v>
+        <v>0.2178389909848414</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>10514</v>
       </c>
       <c r="B515" t="n">
-        <v>0.3629266387202032</v>
+        <v>0.2129266387202032</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>10515</v>
       </c>
       <c r="B516" t="n">
-        <v>0.344812641462191</v>
+        <v>0.194812641462191</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>10516</v>
       </c>
       <c r="B517" t="n">
-        <v>0.3984772279209522</v>
+        <v>0.2484772279209523</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>10517</v>
       </c>
       <c r="B518" t="n">
-        <v>0.3632654233931217</v>
+        <v>0.2132654233931218</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>10518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.3654177958868121</v>
+        <v>0.2154177958868121</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>10519</v>
       </c>
       <c r="B520" t="n">
-        <v>0.3805323427110979</v>
+        <v>0.2305323427110979</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>10520</v>
       </c>
       <c r="B521" t="n">
-        <v>0.3762085085546827</v>
+        <v>0.2262085085546827</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>10521</v>
       </c>
       <c r="B522" t="n">
-        <v>0.3620019506707431</v>
+        <v>0.2120019506707431</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>10522</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3287249993449802</v>
+        <v>0.1787249993449802</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>10523</v>
       </c>
       <c r="B524" t="n">
-        <v>0.387732474445238</v>
+        <v>0.237732474445238</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>10524</v>
       </c>
       <c r="B525" t="n">
-        <v>0.3549575686835317</v>
+        <v>0.2049575686835317</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>10525</v>
       </c>
       <c r="B526" t="n">
-        <v>0.3966647931193916</v>
+        <v>0.2466647931193916</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>10526</v>
       </c>
       <c r="B527" t="n">
-        <v>0.4018882525153739</v>
+        <v>0.2518882525153738</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>10527</v>
       </c>
       <c r="B528" t="n">
-        <v>0.3308821801964683</v>
+        <v>0.1808821801964683</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>10528</v>
       </c>
       <c r="B529" t="n">
-        <v>0.4114583062702251</v>
+        <v>0.261458306270225</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>10529</v>
       </c>
       <c r="B530" t="n">
-        <v>0.3986909783428705</v>
+        <v>0.2486909783428705</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>10530</v>
       </c>
       <c r="B531" t="n">
-        <v>0.3812046986582541</v>
+        <v>0.2312046986582541</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>10531</v>
       </c>
       <c r="B532" t="n">
-        <v>0.3525748355460054</v>
+        <v>0.2025748355460054</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>10532</v>
       </c>
       <c r="B533" t="n">
-        <v>0.4135757219163096</v>
+        <v>0.2635757219163096</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>10533</v>
       </c>
       <c r="B534" t="n">
-        <v>0.3978724326277776</v>
+        <v>0.2478724326277776</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>10534</v>
       </c>
       <c r="B535" t="n">
-        <v>0.3476974500273808</v>
+        <v>0.1976974500273808</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>10535</v>
       </c>
       <c r="B536" t="n">
-        <v>0.3665470897196272</v>
+        <v>0.2165470897196272</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>10536</v>
       </c>
       <c r="B537" t="n">
-        <v>0.3707433738894311</v>
+        <v>0.2207433738894311</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>10537</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3460589118365345</v>
+        <v>0.1960589118365345</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>10538</v>
       </c>
       <c r="B539" t="n">
-        <v>0.3511996041379762</v>
+        <v>0.2011996041379762</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>10539</v>
       </c>
       <c r="B540" t="n">
-        <v>0.3653206817104631</v>
+        <v>0.215320681710463</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>10540</v>
       </c>
       <c r="B541" t="n">
-        <v>0.3646085292935582</v>
+        <v>0.2146085292935582</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>10541</v>
       </c>
       <c r="B542" t="n">
-        <v>0.365505083719418</v>
+        <v>0.2155050837194181</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>10542</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3875011726215739</v>
+        <v>0.2375011726215739</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>10543</v>
       </c>
       <c r="B544" t="n">
-        <v>0.3766665465930159</v>
+        <v>0.2266665465930159</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>10544</v>
       </c>
       <c r="B545" t="n">
-        <v>0.3733309110740104</v>
+        <v>0.2233309110740104</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>10545</v>
       </c>
       <c r="B546" t="n">
-        <v>0.3898547882421826</v>
+        <v>0.2398547882421825</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>10546</v>
       </c>
       <c r="B547" t="n">
-        <v>0.3583073273119149</v>
+        <v>0.208307327311915</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>10547</v>
       </c>
       <c r="B548" t="n">
-        <v>0.3993377264448015</v>
+        <v>0.2493377264448015</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>10548</v>
       </c>
       <c r="B549" t="n">
-        <v>0.4160285093509594</v>
+        <v>0.2660285093509594</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>10549</v>
       </c>
       <c r="B550" t="n">
-        <v>0.334554628175053</v>
+        <v>0.184554628175053</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>10550</v>
       </c>
       <c r="B551" t="n">
-        <v>0.4233344230875263</v>
+        <v>0.2733344230875264</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>10551</v>
       </c>
       <c r="B552" t="n">
-        <v>0.4220695841234918</v>
+        <v>0.2720695841234918</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>10552</v>
       </c>
       <c r="B553" t="n">
-        <v>0.364066265415005</v>
+        <v>0.214066265415005</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>10553</v>
       </c>
       <c r="B554" t="n">
-        <v>0.354187945649008</v>
+        <v>0.2041879456490081</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>10554</v>
       </c>
       <c r="B555" t="n">
-        <v>0.4103511115382674</v>
+        <v>0.2603511115382674</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>10555</v>
       </c>
       <c r="B556" t="n">
-        <v>0.4027925353743649</v>
+        <v>0.2527925353743649</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>10556</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3356348696487342</v>
+        <v>0.1856348696487343</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>10557</v>
       </c>
       <c r="B558" t="n">
-        <v>0.3557848197870238</v>
+        <v>0.2057848197870238</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>10558</v>
       </c>
       <c r="B559" t="n">
-        <v>0.3790603576425264</v>
+        <v>0.2290603576425264</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>10559</v>
       </c>
       <c r="B560" t="n">
-        <v>0.3570876173347757</v>
+        <v>0.2070876173347757</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>10560</v>
       </c>
       <c r="B561" t="n">
-        <v>0.4166492667975793</v>
+        <v>0.2666492667975793</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>10561</v>
       </c>
       <c r="B562" t="n">
-        <v>0.3722196094007011</v>
+        <v>0.2222196094007011</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>10562</v>
       </c>
       <c r="B563" t="n">
-        <v>0.4077631570881459</v>
+        <v>0.2577631570881459</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>10563</v>
       </c>
       <c r="B564" t="n">
-        <v>0.3428758032463888</v>
+        <v>0.1928758032463888</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>10564</v>
       </c>
       <c r="B565" t="n">
-        <v>0.3863560862072618</v>
+        <v>0.2363560862072618</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>10565</v>
       </c>
       <c r="B566" t="n">
-        <v>0.3761352830686111</v>
+        <v>0.2261352830686111</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>10566</v>
       </c>
       <c r="B567" t="n">
-        <v>0.450802578973188</v>
+        <v>0.300802578973188</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>10567</v>
       </c>
       <c r="B568" t="n">
-        <v>0.3571079533689418</v>
+        <v>0.2071079533689418</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>10568</v>
       </c>
       <c r="B569" t="n">
-        <v>0.3936929561868795</v>
+        <v>0.2436929561868795</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>10569</v>
       </c>
       <c r="B570" t="n">
-        <v>0.3724677000417329</v>
+        <v>0.2224677000417329</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>10570</v>
       </c>
       <c r="B571" t="n">
-        <v>0.3657945341401058</v>
+        <v>0.2157945341401058</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>10571</v>
       </c>
       <c r="B572" t="n">
-        <v>0.3865624091919913</v>
+        <v>0.2365624091919913</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>10572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.4046344222349604</v>
+        <v>0.2546344222349604</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>10573</v>
       </c>
       <c r="B574" t="n">
-        <v>0.3456740218637303</v>
+        <v>0.1956740218637303</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>10574</v>
       </c>
       <c r="B575" t="n">
-        <v>0.3780952831176986</v>
+        <v>0.2280952831176986</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>10575</v>
       </c>
       <c r="B576" t="n">
-        <v>0.3302836514399206</v>
+        <v>0.1802836514399206</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>10576</v>
       </c>
       <c r="B577" t="n">
-        <v>0.3786607366053937</v>
+        <v>0.2286607366053937</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>10577</v>
       </c>
       <c r="B578" t="n">
-        <v>0.3994453119048894</v>
+        <v>0.2494453119048894</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>10578</v>
       </c>
       <c r="B579" t="n">
-        <v>0.3365467198717581</v>
+        <v>0.1865467198717581</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>10579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.3613208256539552</v>
+        <v>0.2113208256539552</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>10580</v>
       </c>
       <c r="B581" t="n">
-        <v>0.343340056393979</v>
+        <v>0.193340056393979</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>10581</v>
       </c>
       <c r="B582" t="n">
-        <v>0.3742496957344842</v>
+        <v>0.2242496957344842</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>10582</v>
       </c>
       <c r="B583" t="n">
-        <v>0.3619005768450529</v>
+        <v>0.2119005768450529</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>10583</v>
       </c>
       <c r="B584" t="n">
-        <v>0.3826129576782648</v>
+        <v>0.2326129576782647</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>10584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.351424301740291</v>
+        <v>0.201424301740291</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>10585</v>
       </c>
       <c r="B586" t="n">
-        <v>0.3958098733977118</v>
+        <v>0.2458098733977118</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>10586</v>
       </c>
       <c r="B587" t="n">
-        <v>0.3938689507165778</v>
+        <v>0.2438689507165778</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>10587</v>
       </c>
       <c r="B588" t="n">
-        <v>0.3602096917508814</v>
+        <v>0.2102096917508814</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>10588</v>
       </c>
       <c r="B589" t="n">
-        <v>0.3661530080857803</v>
+        <v>0.2161530080857804</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>10589</v>
       </c>
       <c r="B590" t="n">
-        <v>0.3944774330712699</v>
+        <v>0.2444774330712699</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>10590</v>
       </c>
       <c r="B591" t="n">
-        <v>0.3358899574100132</v>
+        <v>0.1858899574100132</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>10591</v>
       </c>
       <c r="B592" t="n">
-        <v>0.3596768494255329</v>
+        <v>0.2096768494255329</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>10592</v>
       </c>
       <c r="B593" t="n">
-        <v>0.3670492530888888</v>
+        <v>0.2170492530888888</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>10593</v>
       </c>
       <c r="B594" t="n">
-        <v>0.3442094333516955</v>
+        <v>0.1942094333516955</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>10594</v>
       </c>
       <c r="B595" t="n">
-        <v>0.4027455842219458</v>
+        <v>0.2527455842219459</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>10595</v>
       </c>
       <c r="B596" t="n">
-        <v>0.3981027969960582</v>
+        <v>0.2481027969960583</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>10596</v>
       </c>
       <c r="B597" t="n">
-        <v>0.3391238134215874</v>
+        <v>0.1891238134215874</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>10597</v>
       </c>
       <c r="B598" t="n">
-        <v>0.3551535563717063</v>
+        <v>0.2051535563717063</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>10598</v>
       </c>
       <c r="B599" t="n">
-        <v>0.3920774891910315</v>
+        <v>0.2420774891910315</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>10599</v>
       </c>
       <c r="B600" t="n">
-        <v>0.4235484350620595</v>
+        <v>0.2735484350620595</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>10600</v>
       </c>
       <c r="B601" t="n">
-        <v>0.3524636214821296</v>
+        <v>0.2024636214821296</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>10601</v>
       </c>
       <c r="B602" t="n">
-        <v>0.3845788633500793</v>
+        <v>0.2345788633500793</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>10602</v>
       </c>
       <c r="B603" t="n">
-        <v>0.319760401398444</v>
+        <v>0.1697604013984439</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>10603</v>
       </c>
       <c r="B604" t="n">
-        <v>0.3624644653246825</v>
+        <v>0.2124644653246825</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>10604</v>
       </c>
       <c r="B605" t="n">
-        <v>0.3495318774744576</v>
+        <v>0.1995318774744576</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>10605</v>
       </c>
       <c r="B606" t="n">
-        <v>0.3656379469955555</v>
+        <v>0.2156379469955555</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>10606</v>
       </c>
       <c r="B607" t="n">
-        <v>0.3519912381647354</v>
+        <v>0.2019912381647354</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>10607</v>
       </c>
       <c r="B608" t="n">
-        <v>0.3817299662797753</v>
+        <v>0.2317299662797753</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>10608</v>
       </c>
       <c r="B609" t="n">
-        <v>0.3393227977100065</v>
+        <v>0.1893227977100065</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>10609</v>
       </c>
       <c r="B610" t="n">
-        <v>0.4153115526389286</v>
+        <v>0.2653115526389286</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>10610</v>
       </c>
       <c r="B611" t="n">
-        <v>0.4130927846151718</v>
+        <v>0.2630927846151719</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>10611</v>
       </c>
       <c r="B612" t="n">
-        <v>0.4080046694763027</v>
+        <v>0.2580046694763026</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>10612</v>
       </c>
       <c r="B613" t="n">
-        <v>0.3423101509611352</v>
+        <v>0.1923101509611352</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>10613</v>
       </c>
       <c r="B614" t="n">
-        <v>0.3611741338053054</v>
+        <v>0.2111741338053054</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>10614</v>
       </c>
       <c r="B615" t="n">
-        <v>0.3812265277357166</v>
+        <v>0.2312265277357166</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>10615</v>
       </c>
       <c r="B616" t="n">
-        <v>0.3751478037601456</v>
+        <v>0.2251478037601456</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>10616</v>
       </c>
       <c r="B617" t="n">
-        <v>0.3936048221530953</v>
+        <v>0.2436048221530953</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>10617</v>
       </c>
       <c r="B618" t="n">
-        <v>0.3490680066419445</v>
+        <v>0.1990680066419445</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>10618</v>
       </c>
       <c r="B619" t="n">
-        <v>0.4012032542888361</v>
+        <v>0.2512032542888361</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>10619</v>
       </c>
       <c r="B620" t="n">
-        <v>0.3757702767257804</v>
+        <v>0.2257702767257804</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>10620</v>
       </c>
       <c r="B621" t="n">
-        <v>0.3975313003024074</v>
+        <v>0.2475313003024074</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>10621</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3642442447367857</v>
+        <v>0.2142442447367857</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>10622</v>
       </c>
       <c r="B623" t="n">
-        <v>0.3830041152074951</v>
+        <v>0.2330041152074951</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>10623</v>
       </c>
       <c r="B624" t="n">
-        <v>0.402183600550291</v>
+        <v>0.252183600550291</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>10624</v>
       </c>
       <c r="B625" t="n">
-        <v>0.3764495215349712</v>
+        <v>0.2264495215349712</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>10625</v>
       </c>
       <c r="B626" t="n">
-        <v>0.3192973542857178</v>
+        <v>0.1692973542857178</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>10626</v>
       </c>
       <c r="B627" t="n">
-        <v>0.3740591475118916</v>
+        <v>0.2240591475118916</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>10627</v>
       </c>
       <c r="B628" t="n">
-        <v>0.3430443759213933</v>
+        <v>0.1930443759213933</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>10628</v>
       </c>
       <c r="B629" t="n">
-        <v>0.3514533225335847</v>
+        <v>0.2014533225335847</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>10629</v>
       </c>
       <c r="B630" t="n">
-        <v>0.4076948408079366</v>
+        <v>0.2576948408079366</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>10630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.4130232785670633</v>
+        <v>0.2630232785670633</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>10631</v>
       </c>
       <c r="B632" t="n">
-        <v>0.3270704139931349</v>
+        <v>0.1770704139931349</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>10632</v>
       </c>
       <c r="B633" t="n">
-        <v>0.383876153633492</v>
+        <v>0.233876153633492</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>10633</v>
       </c>
       <c r="B634" t="n">
-        <v>0.3703925238177057</v>
+        <v>0.2203925238177057</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>10634</v>
       </c>
       <c r="B635" t="n">
-        <v>0.4049337711049604</v>
+        <v>0.2549337711049604</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>10635</v>
       </c>
       <c r="B636" t="n">
-        <v>0.4038717812565077</v>
+        <v>0.2538717812565077</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>10636</v>
       </c>
       <c r="B637" t="n">
-        <v>0.3650830147284655</v>
+        <v>0.2150830147284655</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>10637</v>
       </c>
       <c r="B638" t="n">
-        <v>0.3028233386096563</v>
+        <v>0.1528233386096562</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>10638</v>
       </c>
       <c r="B639" t="n">
-        <v>0.3543681179069049</v>
+        <v>0.2043681179069049</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>10639</v>
       </c>
       <c r="B640" t="n">
-        <v>0.3237892164844842</v>
+        <v>0.1737892164844842</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>10640</v>
       </c>
       <c r="B641" t="n">
-        <v>0.3889637796386209</v>
+        <v>0.2389637796386209</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>10641</v>
       </c>
       <c r="B642" t="n">
-        <v>0.3630571991532621</v>
+        <v>0.213057199153262</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>10642</v>
       </c>
       <c r="B643" t="n">
-        <v>0.3667250338264153</v>
+        <v>0.2167250338264153</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>10643</v>
       </c>
       <c r="B644" t="n">
-        <v>0.4079256049671428</v>
+        <v>0.2579256049671428</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>10644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.3657239198664683</v>
+        <v>0.2157239198664684</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>10645</v>
       </c>
       <c r="B646" t="n">
-        <v>0.3692621742476322</v>
+        <v>0.2192621742476322</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>10646</v>
       </c>
       <c r="B647" t="n">
-        <v>0.3734134821196032</v>
+        <v>0.2234134821196032</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>10647</v>
       </c>
       <c r="B648" t="n">
-        <v>0.2637967601827381</v>
+        <v>0.1137967601827381</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>10648</v>
       </c>
       <c r="B649" t="n">
-        <v>0.4023519537512831</v>
+        <v>0.2523519537512831</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>10649</v>
       </c>
       <c r="B650" t="n">
-        <v>0.3923027246567194</v>
+        <v>0.2423027246567194</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>10650</v>
       </c>
       <c r="B651" t="n">
-        <v>0.3981501898008765</v>
+        <v>0.2481501898008765</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>10651</v>
       </c>
       <c r="B652" t="n">
-        <v>0.3893444689217725</v>
+        <v>0.2393444689217725</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>10652</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3749323429692086</v>
+        <v>0.2249323429692087</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>10653</v>
       </c>
       <c r="B654" t="n">
-        <v>0.3945723795145371</v>
+        <v>0.2445723795145371</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>10654</v>
       </c>
       <c r="B655" t="n">
-        <v>0.3767746940853383</v>
+        <v>0.2267746940853383</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>10655</v>
       </c>
       <c r="B656" t="n">
-        <v>0.3540214408422089</v>
+        <v>0.2040214408422089</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>10656</v>
       </c>
       <c r="B657" t="n">
-        <v>0.4054369811904762</v>
+        <v>0.2554369811904762</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>10657</v>
       </c>
       <c r="B658" t="n">
-        <v>0.3341584580188491</v>
+        <v>0.1841584580188492</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>10658</v>
       </c>
       <c r="B659" t="n">
-        <v>0.3920978967818256</v>
+        <v>0.2420978967818256</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>10659</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3726529174340933</v>
+        <v>0.2226529174340933</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>10660</v>
       </c>
       <c r="B661" t="n">
-        <v>0.3856564339361639</v>
+        <v>0.2356564339361639</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>10661</v>
       </c>
       <c r="B662" t="n">
-        <v>0.381919543540992</v>
+        <v>0.231919543540992</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>10662</v>
       </c>
       <c r="B663" t="n">
-        <v>0.3846162553130338</v>
+        <v>0.2346162553130338</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>10663</v>
       </c>
       <c r="B664" t="n">
-        <v>0.3695808249415212</v>
+        <v>0.2195808249415212</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>10664</v>
       </c>
       <c r="B665" t="n">
-        <v>0.3870554936571032</v>
+        <v>0.2370554936571032</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>10665</v>
       </c>
       <c r="B666" t="n">
-        <v>0.3407189599788426</v>
+        <v>0.1907189599788426</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>10666</v>
       </c>
       <c r="B667" t="n">
-        <v>0.3741019127045634</v>
+        <v>0.2241019127045634</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>10667</v>
       </c>
       <c r="B668" t="n">
-        <v>0.3722726795828966</v>
+        <v>0.2222726795828966</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>10668</v>
       </c>
       <c r="B669" t="n">
-        <v>0.4054492070723146</v>
+        <v>0.2554492070723146</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>10669</v>
       </c>
       <c r="B670" t="n">
-        <v>0.3612911243804762</v>
+        <v>0.2112911243804761</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>10670</v>
       </c>
       <c r="B671" t="n">
-        <v>0.3372352269456745</v>
+        <v>0.1872352269456745</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>10671</v>
       </c>
       <c r="B672" t="n">
-        <v>0.3668165755640271</v>
+        <v>0.2168165755640271</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>10672</v>
       </c>
       <c r="B673" t="n">
-        <v>0.3679910921677514</v>
+        <v>0.2179910921677514</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>10673</v>
       </c>
       <c r="B674" t="n">
-        <v>0.3776402114414815</v>
+        <v>0.2276402114414816</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>10674</v>
       </c>
       <c r="B675" t="n">
-        <v>0.3626847557280146</v>
+        <v>0.2126847557280146</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>10675</v>
       </c>
       <c r="B676" t="n">
-        <v>0.332209566868946</v>
+        <v>0.182209566868946</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>10676</v>
       </c>
       <c r="B677" t="n">
-        <v>0.3714112903893252</v>
+        <v>0.2214112903893252</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>10677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.3753783989430424</v>
+        <v>0.2253783989430424</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>10678</v>
       </c>
       <c r="B679" t="n">
-        <v>0.4076936163692857</v>
+        <v>0.2576936163692857</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>10679</v>
       </c>
       <c r="B680" t="n">
-        <v>0.3387191866740475</v>
+        <v>0.1887191866740476</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>10680</v>
       </c>
       <c r="B681" t="n">
-        <v>0.376881914321918</v>
+        <v>0.226881914321918</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>10681</v>
       </c>
       <c r="B682" t="n">
-        <v>0.3410078875879191</v>
+        <v>0.1910078875879191</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>10682</v>
       </c>
       <c r="B683" t="n">
-        <v>0.3516490866120833</v>
+        <v>0.2016490866120833</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>10683</v>
       </c>
       <c r="B684" t="n">
-        <v>0.3978918439448545</v>
+        <v>0.2478918439448545</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>10684</v>
       </c>
       <c r="B685" t="n">
-        <v>0.3819375979892558</v>
+        <v>0.2319375979892558</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>10685</v>
       </c>
       <c r="B686" t="n">
-        <v>0.3462789047101059</v>
+        <v>0.1962789047101059</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>10686</v>
       </c>
       <c r="B687" t="n">
-        <v>0.3746522246837565</v>
+        <v>0.2246522246837565</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>10687</v>
       </c>
       <c r="B688" t="n">
-        <v>0.381298719310939</v>
+        <v>0.231298719310939</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>10688</v>
       </c>
       <c r="B689" t="n">
-        <v>0.3741422479492856</v>
+        <v>0.2241422479492856</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>10689</v>
       </c>
       <c r="B690" t="n">
-        <v>0.3650479604163755</v>
+        <v>0.2150479604163755</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>10690</v>
       </c>
       <c r="B691" t="n">
-        <v>0.3982374177719312</v>
+        <v>0.2482374177719312</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>10691</v>
       </c>
       <c r="B692" t="n">
-        <v>0.4220855625140655</v>
+        <v>0.2720855625140655</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>10692</v>
       </c>
       <c r="B693" t="n">
-        <v>0.3600323846542858</v>
+        <v>0.2100323846542858</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>10693</v>
       </c>
       <c r="B694" t="n">
-        <v>0.3525464498820239</v>
+        <v>0.2025464498820239</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>10694</v>
       </c>
       <c r="B695" t="n">
-        <v>0.3736131448865742</v>
+        <v>0.2236131448865741</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>10695</v>
       </c>
       <c r="B696" t="n">
-        <v>0.3678464547728571</v>
+        <v>0.2178464547728571</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>10696</v>
       </c>
       <c r="B697" t="n">
-        <v>0.3490702629904763</v>
+        <v>0.1990702629904763</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>10697</v>
       </c>
       <c r="B698" t="n">
-        <v>0.4026557127204631</v>
+        <v>0.2526557127204631</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>10698</v>
       </c>
       <c r="B699" t="n">
-        <v>0.3973490333063228</v>
+        <v>0.2473490333063228</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>10699</v>
       </c>
       <c r="B700" t="n">
-        <v>0.377781785568188</v>
+        <v>0.227781785568188</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>10700</v>
       </c>
       <c r="B701" t="n">
-        <v>0.3436217596902779</v>
+        <v>0.1936217596902779</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>10701</v>
       </c>
       <c r="B702" t="n">
-        <v>0.3881017662654078</v>
+        <v>0.2381017662654079</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>10702</v>
       </c>
       <c r="B703" t="n">
-        <v>0.3805879128150143</v>
+        <v>0.2305879128150143</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>10703</v>
       </c>
       <c r="B704" t="n">
-        <v>0.3578104689988625</v>
+        <v>0.2078104689988625</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>10704</v>
       </c>
       <c r="B705" t="n">
-        <v>0.3352810296099603</v>
+        <v>0.1852810296099603</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>10705</v>
       </c>
       <c r="B706" t="n">
-        <v>0.4070195450369432</v>
+        <v>0.2570195450369431</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>10706</v>
       </c>
       <c r="B707" t="n">
-        <v>0.3873667638627994</v>
+        <v>0.2373667638627994</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>10707</v>
       </c>
       <c r="B708" t="n">
-        <v>0.4067113427457539</v>
+        <v>0.2567113427457539</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>10708</v>
       </c>
       <c r="B709" t="n">
-        <v>0.3900111174408599</v>
+        <v>0.2400111174408599</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>10709</v>
       </c>
       <c r="B710" t="n">
-        <v>0.3168498070761822</v>
+        <v>0.1668498070761821</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>10710</v>
       </c>
       <c r="B711" t="n">
-        <v>0.3580337834199999</v>
+        <v>0.2080337834199999</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>10711</v>
       </c>
       <c r="B712" t="n">
-        <v>0.3913226960808993</v>
+        <v>0.2413226960808993</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>10712</v>
       </c>
       <c r="B713" t="n">
-        <v>0.3616361982791666</v>
+        <v>0.2116361982791666</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>10713</v>
       </c>
       <c r="B714" t="n">
-        <v>0.3849599177267857</v>
+        <v>0.2349599177267857</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>10714</v>
       </c>
       <c r="B715" t="n">
-        <v>0.3574942003738828</v>
+        <v>0.2074942003738828</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>10715</v>
       </c>
       <c r="B716" t="n">
-        <v>0.3386421880577251</v>
+        <v>0.188642188057725</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>10716</v>
       </c>
       <c r="B717" t="n">
-        <v>0.3653469500792603</v>
+        <v>0.2153469500792603</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>10717</v>
       </c>
       <c r="B718" t="n">
-        <v>0.3906257848032406</v>
+        <v>0.2406257848032406</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>10718</v>
       </c>
       <c r="B719" t="n">
-        <v>0.3584547947656481</v>
+        <v>0.2084547947656481</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>10719</v>
       </c>
       <c r="B720" t="n">
-        <v>0.3740069944524999</v>
+        <v>0.2240069944524999</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>10720</v>
       </c>
       <c r="B721" t="n">
-        <v>0.3977245211824209</v>
+        <v>0.2477245211824209</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>10721</v>
       </c>
       <c r="B722" t="n">
-        <v>0.3558162547180292</v>
+        <v>0.2058162547180292</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>10722</v>
       </c>
       <c r="B723" t="n">
-        <v>0.3513669541207671</v>
+        <v>0.2013669541207671</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>10723</v>
       </c>
       <c r="B724" t="n">
-        <v>0.3535743834174097</v>
+        <v>0.2035743834174097</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>10724</v>
       </c>
       <c r="B725" t="n">
-        <v>0.3850479339518054</v>
+        <v>0.2350479339518054</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>10725</v>
       </c>
       <c r="B726" t="n">
-        <v>0.4088084546178574</v>
+        <v>0.2588084546178574</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>10726</v>
       </c>
       <c r="B727" t="n">
-        <v>0.3483192096644841</v>
+        <v>0.1983192096644841</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>10727</v>
       </c>
       <c r="B728" t="n">
-        <v>0.3553669836728044</v>
+        <v>0.2053669836728044</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>10728</v>
       </c>
       <c r="B729" t="n">
-        <v>0.3716812901537664</v>
+        <v>0.2216812901537664</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>10729</v>
       </c>
       <c r="B730" t="n">
-        <v>0.3392726042898678</v>
+        <v>0.1892726042898678</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>10730</v>
       </c>
       <c r="B731" t="n">
-        <v>0.4000793342089155</v>
+        <v>0.2500793342089155</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>10731</v>
       </c>
       <c r="B732" t="n">
-        <v>0.3457032736226985</v>
+        <v>0.1957032736226985</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>10732</v>
       </c>
       <c r="B733" t="n">
-        <v>0.3404768968592883</v>
+        <v>0.1904768968592883</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>10733</v>
       </c>
       <c r="B734" t="n">
-        <v>0.3578585099334524</v>
+        <v>0.2078585099334524</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>10734</v>
       </c>
       <c r="B735" t="n">
-        <v>0.3797230391849207</v>
+        <v>0.2297230391849207</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>10735</v>
       </c>
       <c r="B736" t="n">
-        <v>0.3976702557750661</v>
+        <v>0.2476702557750661</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>10736</v>
       </c>
       <c r="B737" t="n">
-        <v>0.3998537239992693</v>
+        <v>0.2498537239992694</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>10737</v>
       </c>
       <c r="B738" t="n">
-        <v>0.3950924979183321</v>
+        <v>0.2450924979183321</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>10738</v>
       </c>
       <c r="B739" t="n">
-        <v>0.3737264176875307</v>
+        <v>0.2237264176875307</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>10739</v>
       </c>
       <c r="B740" t="n">
-        <v>0.3905841146721956</v>
+        <v>0.2405841146721956</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>10740</v>
       </c>
       <c r="B741" t="n">
-        <v>0.3564528505954762</v>
+        <v>0.2064528505954761</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>10741</v>
       </c>
       <c r="B742" t="n">
-        <v>0.3691044290259787</v>
+        <v>0.2191044290259787</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>10742</v>
       </c>
       <c r="B743" t="n">
-        <v>0.3772350393589886</v>
+        <v>0.2272350393589886</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>10743</v>
       </c>
       <c r="B744" t="n">
-        <v>0.3489517251138491</v>
+        <v>0.1989517251138491</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>10744</v>
       </c>
       <c r="B745" t="n">
-        <v>0.3312294897609404</v>
+        <v>0.1812294897609404</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>10745</v>
       </c>
       <c r="B746" t="n">
-        <v>0.3503941145514285</v>
+        <v>0.2003941145514285</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>10746</v>
       </c>
       <c r="B747" t="n">
-        <v>0.3651723328937433</v>
+        <v>0.2151723328937433</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>10747</v>
       </c>
       <c r="B748" t="n">
-        <v>0.3743505367740871</v>
+        <v>0.2243505367740872</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>10748</v>
       </c>
       <c r="B749" t="n">
-        <v>0.4049819875174543</v>
+        <v>0.2549819875174543</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>10749</v>
       </c>
       <c r="B750" t="n">
-        <v>0.4102436847704231</v>
+        <v>0.2602436847704231</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>10750</v>
       </c>
       <c r="B751" t="n">
-        <v>0.3483920660167988</v>
+        <v>0.1983920660167989</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>10751</v>
       </c>
       <c r="B752" t="n">
-        <v>0.4145380434951189</v>
+        <v>0.2645380434951189</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>10752</v>
       </c>
       <c r="B753" t="n">
-        <v>0.3181749545518122</v>
+        <v>0.1681749545518122</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>10753</v>
       </c>
       <c r="B754" t="n">
-        <v>0.4172900215998014</v>
+        <v>0.2672900215998015</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>10754</v>
       </c>
       <c r="B755" t="n">
-        <v>0.3923528266365414</v>
+        <v>0.2423528266365414</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>10755</v>
       </c>
       <c r="B756" t="n">
-        <v>0.377336883690344</v>
+        <v>0.227336883690344</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>10756</v>
       </c>
       <c r="B757" t="n">
-        <v>0.409731830408116</v>
+        <v>0.259731830408116</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>10757</v>
       </c>
       <c r="B758" t="n">
-        <v>0.3639838071780556</v>
+        <v>0.2139838071780556</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>10758</v>
       </c>
       <c r="B759" t="n">
-        <v>0.3609468197586773</v>
+        <v>0.2109468197586772</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>10759</v>
       </c>
       <c r="B760" t="n">
-        <v>0.3638852438963888</v>
+        <v>0.2138852438963888</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>10760</v>
       </c>
       <c r="B761" t="n">
-        <v>0.3271837087478703</v>
+        <v>0.1771837087478703</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>10761</v>
       </c>
       <c r="B762" t="n">
-        <v>0.3723520328884657</v>
+        <v>0.2223520328884658</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>10762</v>
       </c>
       <c r="B763" t="n">
-        <v>0.4073163095007143</v>
+        <v>0.2573163095007143</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>10763</v>
       </c>
       <c r="B764" t="n">
-        <v>0.3625706422315476</v>
+        <v>0.2125706422315475</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>10764</v>
       </c>
       <c r="B765" t="n">
-        <v>0.3756805838258466</v>
+        <v>0.2256805838258466</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>10765</v>
       </c>
       <c r="B766" t="n">
-        <v>0.3483342214717028</v>
+        <v>0.1983342214717028</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>10766</v>
       </c>
       <c r="B767" t="n">
-        <v>0.3979586793078042</v>
+        <v>0.2479586793078042</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>10767</v>
       </c>
       <c r="B768" t="n">
-        <v>0.3944370897332934</v>
+        <v>0.2444370897332934</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>10768</v>
       </c>
       <c r="B769" t="n">
-        <v>0.3973434914837565</v>
+        <v>0.2473434914837565</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>10769</v>
       </c>
       <c r="B770" t="n">
-        <v>0.2791693723904102</v>
+        <v>0.1291693723904102</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>10770</v>
       </c>
       <c r="B771" t="n">
-        <v>0.3319750302593386</v>
+        <v>0.1819750302593386</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>10771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.3247671895734128</v>
+        <v>0.1747671895734128</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>10772</v>
       </c>
       <c r="B773" t="n">
-        <v>0.340588093100873</v>
+        <v>0.190588093100873</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>10773</v>
       </c>
       <c r="B774" t="n">
-        <v>0.3950227644057562</v>
+        <v>0.2450227644057563</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>10774</v>
       </c>
       <c r="B775" t="n">
-        <v>0.3781206969458333</v>
+        <v>0.2281206969458333</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>10775</v>
       </c>
       <c r="B776" t="n">
-        <v>0.3669171676752779</v>
+        <v>0.2169171676752779</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>10776</v>
       </c>
       <c r="B777" t="n">
-        <v>0.3544043112328703</v>
+        <v>0.2044043112328703</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>10777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.3785382990731948</v>
+        <v>0.2285382990731948</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>10778</v>
       </c>
       <c r="B779" t="n">
-        <v>0.3983753123505556</v>
+        <v>0.2483753123505556</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>10779</v>
       </c>
       <c r="B780" t="n">
-        <v>0.3512263532136906</v>
+        <v>0.2012263532136906</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>10780</v>
       </c>
       <c r="B781" t="n">
-        <v>0.3449418556782936</v>
+        <v>0.1949418556782936</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>10781</v>
       </c>
       <c r="B782" t="n">
-        <v>0.3696417056374003</v>
+        <v>0.2196417056374003</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>10782</v>
       </c>
       <c r="B783" t="n">
-        <v>0.3679876820387699</v>
+        <v>0.2179876820387699</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>10783</v>
       </c>
       <c r="B784" t="n">
-        <v>0.3932423783096692</v>
+        <v>0.2432423783096693</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>10784</v>
       </c>
       <c r="B785" t="n">
-        <v>0.3445445757032539</v>
+        <v>0.1945445757032539</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>10785</v>
       </c>
       <c r="B786" t="n">
-        <v>0.375728273606852</v>
+        <v>0.225728273606852</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>10786</v>
       </c>
       <c r="B787" t="n">
-        <v>0.395336056212037</v>
+        <v>0.2453360562120371</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>10787</v>
       </c>
       <c r="B788" t="n">
-        <v>0.3973730807867065</v>
+        <v>0.2473730807867066</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>10788</v>
       </c>
       <c r="B789" t="n">
-        <v>0.3423737914848282</v>
+        <v>0.1923737914848282</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>10789</v>
       </c>
       <c r="B790" t="n">
-        <v>0.3789538164442066</v>
+        <v>0.2289538164442065</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>10790</v>
       </c>
       <c r="B791" t="n">
-        <v>0.3714555478621825</v>
+        <v>0.2214555478621825</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>10791</v>
       </c>
       <c r="B792" t="n">
-        <v>0.3669855806592063</v>
+        <v>0.2169855806592063</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>10792</v>
       </c>
       <c r="B793" t="n">
-        <v>0.4123769292117757</v>
+        <v>0.2623769292117757</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>10793</v>
       </c>
       <c r="B794" t="n">
-        <v>0.3729832735416799</v>
+        <v>0.22298327354168</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>10794</v>
       </c>
       <c r="B795" t="n">
-        <v>0.375090055118267</v>
+        <v>0.225090055118267</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>10795</v>
       </c>
       <c r="B796" t="n">
-        <v>0.3505111951946271</v>
+        <v>0.2005111951946272</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>10796</v>
       </c>
       <c r="B797" t="n">
-        <v>0.3922674351426063</v>
+        <v>0.2422674351426063</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>10797</v>
       </c>
       <c r="B798" t="n">
-        <v>0.4145893430867593</v>
+        <v>0.2645893430867593</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>10798</v>
       </c>
       <c r="B799" t="n">
-        <v>0.4002297464046164</v>
+        <v>0.2502297464046164</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>10799</v>
       </c>
       <c r="B800" t="n">
-        <v>0.3025947888846561</v>
+        <v>0.1525947888846561</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>10800</v>
       </c>
       <c r="B801" t="n">
-        <v>0.3793752795842</v>
+        <v>0.2293752795842</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>10801</v>
       </c>
       <c r="B802" t="n">
-        <v>0.3516711157410582</v>
+        <v>0.2016711157410583</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>10802</v>
       </c>
       <c r="B803" t="n">
-        <v>0.3848301772986941</v>
+        <v>0.2348301772986941</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>10803</v>
       </c>
       <c r="B804" t="n">
-        <v>0.3680987287121428</v>
+        <v>0.2180987287121428</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>10804</v>
       </c>
       <c r="B805" t="n">
-        <v>0.3937146690284921</v>
+        <v>0.2437146690284921</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>10805</v>
       </c>
       <c r="B806" t="n">
-        <v>0.407061018423849</v>
+        <v>0.257061018423849</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>10806</v>
       </c>
       <c r="B807" t="n">
-        <v>0.3670120443201588</v>
+        <v>0.2170120443201588</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>10807</v>
       </c>
       <c r="B808" t="n">
-        <v>0.3740996059246692</v>
+        <v>0.2240996059246692</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>10808</v>
       </c>
       <c r="B809" t="n">
-        <v>0.3472048467889418</v>
+        <v>0.1972048467889418</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>10809</v>
       </c>
       <c r="B810" t="n">
-        <v>0.3954152873948017</v>
+        <v>0.2454152873948017</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>10810</v>
       </c>
       <c r="B811" t="n">
-        <v>0.3997757176939323</v>
+        <v>0.2497757176939323</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>10811</v>
       </c>
       <c r="B812" t="n">
-        <v>0.3622163671599207</v>
+        <v>0.2122163671599207</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>10812</v>
       </c>
       <c r="B813" t="n">
-        <v>0.4127753032371695</v>
+        <v>0.2627753032371695</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>10813</v>
       </c>
       <c r="B814" t="n">
-        <v>0.3608333367954617</v>
+        <v>0.2108333367954617</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>10814</v>
       </c>
       <c r="B815" t="n">
-        <v>0.3447615939234259</v>
+        <v>0.1947615939234259</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>10815</v>
       </c>
       <c r="B816" t="n">
-        <v>0.3539938843567352</v>
+        <v>0.2039938843567352</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>10816</v>
       </c>
       <c r="B817" t="n">
-        <v>0.3846562541475793</v>
+        <v>0.2346562541475793</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>10817</v>
       </c>
       <c r="B818" t="n">
-        <v>0.4010134072948411</v>
+        <v>0.2510134072948412</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>10818</v>
       </c>
       <c r="B819" t="n">
-        <v>0.3593845995918517</v>
+        <v>0.2093845995918517</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>10819</v>
       </c>
       <c r="B820" t="n">
-        <v>0.4175744540671295</v>
+        <v>0.2675744540671295</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>10820</v>
       </c>
       <c r="B821" t="n">
-        <v>0.376227881547434</v>
+        <v>0.226227881547434</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>10821</v>
       </c>
       <c r="B822" t="n">
-        <v>0.3685017836559391</v>
+        <v>0.2185017836559391</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>10822</v>
       </c>
       <c r="B823" t="n">
-        <v>0.361396676069484</v>
+        <v>0.211396676069484</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>10823</v>
       </c>
       <c r="B824" t="n">
-        <v>0.3614372107064971</v>
+        <v>0.2114372107064972</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>10824</v>
       </c>
       <c r="B825" t="n">
-        <v>0.3399615739143758</v>
+        <v>0.1899615739143758</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>10825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.3851080029398524</v>
+        <v>0.2351080029398524</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>10826</v>
       </c>
       <c r="B827" t="n">
-        <v>0.3590039828982804</v>
+        <v>0.2090039828982805</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>10827</v>
       </c>
       <c r="B828" t="n">
-        <v>0.3751286784202777</v>
+        <v>0.2251286784202777</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>10828</v>
       </c>
       <c r="B829" t="n">
-        <v>0.3742452795445105</v>
+        <v>0.2242452795445105</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>10829</v>
       </c>
       <c r="B830" t="n">
-        <v>0.3735892140583466</v>
+        <v>0.2235892140583466</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>10830</v>
       </c>
       <c r="B831" t="n">
-        <v>0.382985080760754</v>
+        <v>0.232985080760754</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>10831</v>
       </c>
       <c r="B832" t="n">
-        <v>0.3898272337555556</v>
+        <v>0.2398272337555556</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>10832</v>
       </c>
       <c r="B833" t="n">
-        <v>0.3567124899148413</v>
+        <v>0.2067124899148413</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>10833</v>
       </c>
       <c r="B834" t="n">
-        <v>0.3596265531085713</v>
+        <v>0.2096265531085713</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>10834</v>
       </c>
       <c r="B835" t="n">
-        <v>0.4388819600052118</v>
+        <v>0.2888819600052119</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>10835</v>
       </c>
       <c r="B836" t="n">
-        <v>0.3688021408095901</v>
+        <v>0.2188021408095901</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>10836</v>
       </c>
       <c r="B837" t="n">
-        <v>0.4008314156807011</v>
+        <v>0.2508314156807011</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>10837</v>
       </c>
       <c r="B838" t="n">
-        <v>0.4307909884057407</v>
+        <v>0.2807909884057407</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>10838</v>
       </c>
       <c r="B839" t="n">
-        <v>0.3545480402987878</v>
+        <v>0.2045480402987878</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>10839</v>
       </c>
       <c r="B840" t="n">
-        <v>0.3915267471051192</v>
+        <v>0.2415267471051192</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>10840</v>
       </c>
       <c r="B841" t="n">
-        <v>0.352246811390119</v>
+        <v>0.2022468113901191</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>10841</v>
       </c>
       <c r="B842" t="n">
-        <v>0.4205139414343676</v>
+        <v>0.2705139414343676</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>10842</v>
       </c>
       <c r="B843" t="n">
-        <v>0.3622863998917459</v>
+        <v>0.212286399891746</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>10843</v>
       </c>
       <c r="B844" t="n">
-        <v>0.3844285169208729</v>
+        <v>0.2344285169208729</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>10844</v>
       </c>
       <c r="B845" t="n">
-        <v>0.4057488120674735</v>
+        <v>0.2557488120674735</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>10845</v>
       </c>
       <c r="B846" t="n">
-        <v>0.3522401989689945</v>
+        <v>0.2022401989689945</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>10846</v>
       </c>
       <c r="B847" t="n">
-        <v>0.3809185421913625</v>
+        <v>0.2309185421913625</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>10847</v>
       </c>
       <c r="B848" t="n">
-        <v>0.3992549033498282</v>
+        <v>0.2492549033498282</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>10848</v>
       </c>
       <c r="B849" t="n">
-        <v>0.2648181162393387</v>
+        <v>0.1148181162393387</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>10849</v>
       </c>
       <c r="B850" t="n">
-        <v>0.3776447984393518</v>
+        <v>0.2276447984393518</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>10850</v>
       </c>
       <c r="B851" t="n">
-        <v>0.3353832013541431</v>
+        <v>0.1853832013541431</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>10851</v>
       </c>
       <c r="B852" t="n">
-        <v>0.3678659324037699</v>
+        <v>0.2178659324037698</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>10852</v>
       </c>
       <c r="B853" t="n">
-        <v>0.3965023402726766</v>
+        <v>0.2465023402726766</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>10853</v>
       </c>
       <c r="B854" t="n">
-        <v>0.3554591463140609</v>
+        <v>0.205459146314061</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>10854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.3433644188900266</v>
+        <v>0.1933644188900266</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>10855</v>
       </c>
       <c r="B856" t="n">
-        <v>0.3728541379051851</v>
+        <v>0.2228541379051851</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>10856</v>
       </c>
       <c r="B857" t="n">
-        <v>0.3756098245127246</v>
+        <v>0.2256098245127247</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>10857</v>
       </c>
       <c r="B858" t="n">
-        <v>0.3820096736188219</v>
+        <v>0.2320096736188219</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>10858</v>
       </c>
       <c r="B859" t="n">
-        <v>0.4216272756155555</v>
+        <v>0.2716272756155555</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>10859</v>
       </c>
       <c r="B860" t="n">
-        <v>0.3605772225201589</v>
+        <v>0.210577222520159</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>10860</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3709446429967459</v>
+        <v>0.2209446429967459</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>10861</v>
       </c>
       <c r="B862" t="n">
-        <v>0.4080059277234704</v>
+        <v>0.2580059277234705</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>10862</v>
       </c>
       <c r="B863" t="n">
-        <v>0.3569589555263359</v>
+        <v>0.206958955526336</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>10863</v>
       </c>
       <c r="B864" t="n">
-        <v>0.4039153044431351</v>
+        <v>0.2539153044431351</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>10864</v>
       </c>
       <c r="B865" t="n">
-        <v>0.3640942619125793</v>
+        <v>0.2140942619125794</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>10865</v>
       </c>
       <c r="B866" t="n">
-        <v>0.3559258246866006</v>
+        <v>0.2059258246866006</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>10866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.4065417554405025</v>
+        <v>0.2565417554405026</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>10867</v>
       </c>
       <c r="B868" t="n">
-        <v>0.3912114669865606</v>
+        <v>0.2412114669865606</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>10868</v>
       </c>
       <c r="B869" t="n">
-        <v>0.3698604873594084</v>
+        <v>0.2198604873594084</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>10869</v>
       </c>
       <c r="B870" t="n">
-        <v>0.4131879861900661</v>
+        <v>0.2631879861900661</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>10870</v>
       </c>
       <c r="B871" t="n">
-        <v>0.3433632914512434</v>
+        <v>0.1933632914512435</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>10871</v>
       </c>
       <c r="B872" t="n">
-        <v>0.3372761816733995</v>
+        <v>0.1872761816733995</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>10872</v>
       </c>
       <c r="B873" t="n">
-        <v>0.3513585877569884</v>
+        <v>0.2013585877569883</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>10873</v>
       </c>
       <c r="B874" t="n">
-        <v>0.3411913618294842</v>
+        <v>0.1911913618294842</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>10874</v>
       </c>
       <c r="B875" t="n">
-        <v>0.3563145246454364</v>
+        <v>0.2063145246454365</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>10875</v>
       </c>
       <c r="B876" t="n">
-        <v>0.3576521551032539</v>
+        <v>0.2076521551032539</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>10876</v>
       </c>
       <c r="B877" t="n">
-        <v>0.3859570651782934</v>
+        <v>0.2359570651782935</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>10877</v>
       </c>
       <c r="B878" t="n">
-        <v>0.3920167540289812</v>
+        <v>0.2420167540289812</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>10878</v>
       </c>
       <c r="B879" t="n">
-        <v>0.3404300175210317</v>
+        <v>0.1904300175210317</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>10879</v>
       </c>
       <c r="B880" t="n">
-        <v>0.362275270837341</v>
+        <v>0.212275270837341</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>10880</v>
       </c>
       <c r="B881" t="n">
-        <v>0.4154105259981614</v>
+        <v>0.2654105259981614</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>10881</v>
       </c>
       <c r="B882" t="n">
-        <v>0.3892408881077513</v>
+        <v>0.2392408881077513</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>10882</v>
       </c>
       <c r="B883" t="n">
-        <v>0.4014373856573014</v>
+        <v>0.2514373856573013</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>10883</v>
       </c>
       <c r="B884" t="n">
-        <v>0.355971889937976</v>
+        <v>0.205971889937976</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>10884</v>
       </c>
       <c r="B885" t="n">
-        <v>0.3330564527089418</v>
+        <v>0.1830564527089418</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>10885</v>
       </c>
       <c r="B886" t="n">
-        <v>0.3436461362393758</v>
+        <v>0.1936461362393758</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>10886</v>
       </c>
       <c r="B887" t="n">
-        <v>0.3936507883009229</v>
+        <v>0.2436507883009229</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>10887</v>
       </c>
       <c r="B888" t="n">
-        <v>0.4123572555663613</v>
+        <v>0.2623572555663612</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>10888</v>
       </c>
       <c r="B889" t="n">
-        <v>0.3641297346315451</v>
+        <v>0.2141297346315451</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>10889</v>
       </c>
       <c r="B890" t="n">
-        <v>0.363022634373278</v>
+        <v>0.213022634373278</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>10890</v>
       </c>
       <c r="B891" t="n">
-        <v>0.3766442079505556</v>
+        <v>0.2266442079505556</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>10891</v>
       </c>
       <c r="B892" t="n">
-        <v>0.3892573177698677</v>
+        <v>0.2392573177698678</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>10892</v>
       </c>
       <c r="B893" t="n">
-        <v>0.3868655798463094</v>
+        <v>0.2368655798463095</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>10893</v>
       </c>
       <c r="B894" t="n">
-        <v>0.4106731540206218</v>
+        <v>0.2606731540206218</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>10894</v>
       </c>
       <c r="B895" t="n">
-        <v>0.3622455596548016</v>
+        <v>0.2122455596548016</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>10895</v>
       </c>
       <c r="B896" t="n">
-        <v>0.3686023613292989</v>
+        <v>0.2186023613292989</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>10896</v>
       </c>
       <c r="B897" t="n">
-        <v>0.3767393805347306</v>
+        <v>0.2267393805347306</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>10897</v>
       </c>
       <c r="B898" t="n">
-        <v>0.3609865646071825</v>
+        <v>0.2109865646071825</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>10898</v>
       </c>
       <c r="B899" t="n">
-        <v>0.4028557228231083</v>
+        <v>0.2528557228231083</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>10899</v>
       </c>
       <c r="B900" t="n">
-        <v>0.3192955603128044</v>
+        <v>0.1692955603128043</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>10900</v>
       </c>
       <c r="B901" t="n">
-        <v>0.3957205371384004</v>
+        <v>0.2457205371384004</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>10901</v>
       </c>
       <c r="B902" t="n">
-        <v>0.3593876150344049</v>
+        <v>0.2093876150344049</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>10902</v>
       </c>
       <c r="B903" t="n">
-        <v>0.4004416977214286</v>
+        <v>0.2504416977214285</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>10903</v>
       </c>
       <c r="B904" t="n">
-        <v>0.3904849997446694</v>
+        <v>0.2404849997446694</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>10904</v>
       </c>
       <c r="B905" t="n">
-        <v>0.4253579020860847</v>
+        <v>0.2753579020860847</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>10905</v>
       </c>
       <c r="B906" t="n">
-        <v>0.3460788294344047</v>
+        <v>0.1960788294344047</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>10906</v>
       </c>
       <c r="B907" t="n">
-        <v>0.3502479908572088</v>
+        <v>0.2002479908572088</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>10907</v>
       </c>
       <c r="B908" t="n">
-        <v>0.4012419554684046</v>
+        <v>0.2512419554684046</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>10908</v>
       </c>
       <c r="B909" t="n">
-        <v>0.3941376220728571</v>
+        <v>0.2441376220728571</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>10909</v>
       </c>
       <c r="B910" t="n">
-        <v>0.343079895860529</v>
+        <v>0.193079895860529</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>10910</v>
       </c>
       <c r="B911" t="n">
-        <v>0.3797636080004737</v>
+        <v>0.2297636080004737</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>10911</v>
       </c>
       <c r="B912" t="n">
-        <v>0.3632611370524733</v>
+        <v>0.2132611370524733</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>10912</v>
       </c>
       <c r="B913" t="n">
-        <v>0.4062312504668254</v>
+        <v>0.2562312504668254</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>10913</v>
       </c>
       <c r="B914" t="n">
-        <v>0.3399419730996691</v>
+        <v>0.1899419730996691</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>10914</v>
       </c>
       <c r="B915" t="n">
-        <v>0.3791576025022484</v>
+        <v>0.2291576025022485</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>10915</v>
       </c>
       <c r="B916" t="n">
-        <v>0.3634798063743914</v>
+        <v>0.2134798063743914</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>10916</v>
       </c>
       <c r="B917" t="n">
-        <v>0.4012727396465078</v>
+        <v>0.2512727396465078</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>10917</v>
       </c>
       <c r="B918" t="n">
-        <v>0.4000983527171453</v>
+        <v>0.2500983527171454</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>10918</v>
       </c>
       <c r="B919" t="n">
-        <v>0.3802370209637566</v>
+        <v>0.2302370209637565</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>10919</v>
       </c>
       <c r="B920" t="n">
-        <v>0.3749863846869311</v>
+        <v>0.2249863846869312</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>10920</v>
       </c>
       <c r="B921" t="n">
-        <v>0.3588716267330682</v>
+        <v>0.2088716267330682</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>10921</v>
       </c>
       <c r="B922" t="n">
-        <v>0.3438991079967592</v>
+        <v>0.1938991079967592</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>10922</v>
       </c>
       <c r="B923" t="n">
-        <v>0.3908921464885315</v>
+        <v>0.2408921464885316</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>10923</v>
       </c>
       <c r="B924" t="n">
-        <v>0.3894708903692989</v>
+        <v>0.2394708903692989</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>10924</v>
       </c>
       <c r="B925" t="n">
-        <v>0.3429290228296827</v>
+        <v>0.1929290228296827</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>10925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.400894151618604</v>
+        <v>0.250894151618604</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>10926</v>
       </c>
       <c r="B927" t="n">
-        <v>0.4067931784633995</v>
+        <v>0.2567931784633995</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>10927</v>
       </c>
       <c r="B928" t="n">
-        <v>0.4119266005101587</v>
+        <v>0.2619266005101587</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>10928</v>
       </c>
       <c r="B929" t="n">
-        <v>0.3528874692067117</v>
+        <v>0.2028874692067117</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>10929</v>
       </c>
       <c r="B930" t="n">
-        <v>0.4000803705997721</v>
+        <v>0.2500803705997721</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>10930</v>
       </c>
       <c r="B931" t="n">
-        <v>0.3970425214861211</v>
+        <v>0.2470425214861211</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>10931</v>
       </c>
       <c r="B932" t="n">
-        <v>0.4201426887249975</v>
+        <v>0.2701426887249975</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>10932</v>
       </c>
       <c r="B933" t="n">
-        <v>0.3764555921481745</v>
+        <v>0.2264555921481745</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>10933</v>
       </c>
       <c r="B934" t="n">
-        <v>0.3361575948894578</v>
+        <v>0.1861575948894578</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>10934</v>
       </c>
       <c r="B935" t="n">
-        <v>0.391573629409453</v>
+        <v>0.241573629409453</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>10935</v>
       </c>
       <c r="B936" t="n">
-        <v>0.3996466560194445</v>
+        <v>0.2496466560194445</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>10936</v>
       </c>
       <c r="B937" t="n">
-        <v>0.3815795467276587</v>
+        <v>0.2315795467276587</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>10937</v>
       </c>
       <c r="B938" t="n">
-        <v>0.4008768936939152</v>
+        <v>0.2508768936939152</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>10938</v>
       </c>
       <c r="B939" t="n">
-        <v>0.4114210058266137</v>
+        <v>0.2614210058266137</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>10939</v>
       </c>
       <c r="B940" t="n">
-        <v>0.3639681188097884</v>
+        <v>0.2139681188097884</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>10940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.4212878143417725</v>
+        <v>0.2712878143417726</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>10941</v>
       </c>
       <c r="B942" t="n">
-        <v>0.4093769325673148</v>
+        <v>0.2593769325673148</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>10942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.3891145324666799</v>
+        <v>0.2391145324666799</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>10943</v>
       </c>
       <c r="B944" t="n">
-        <v>0.3546397899816138</v>
+        <v>0.2046397899816139</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>10944</v>
       </c>
       <c r="B945" t="n">
-        <v>0.4054134400350577</v>
+        <v>0.2554134400350577</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>10945</v>
       </c>
       <c r="B946" t="n">
-        <v>0.3879959657859391</v>
+        <v>0.2379959657859391</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>10946</v>
       </c>
       <c r="B947" t="n">
-        <v>0.333067125935635</v>
+        <v>0.1830671259356351</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>10947</v>
       </c>
       <c r="B948" t="n">
-        <v>0.3754425225272751</v>
+        <v>0.225442522527275</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>10948</v>
       </c>
       <c r="B949" t="n">
-        <v>0.3441446864297488</v>
+        <v>0.1941446864297488</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>10949</v>
       </c>
       <c r="B950" t="n">
-        <v>0.413891747550492</v>
+        <v>0.263891747550492</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>10950</v>
       </c>
       <c r="B951" t="n">
-        <v>0.3466458170921825</v>
+        <v>0.1966458170921825</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>10951</v>
       </c>
       <c r="B952" t="n">
-        <v>0.3758615595569708</v>
+        <v>0.2258615595569708</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>10952</v>
       </c>
       <c r="B953" t="n">
-        <v>0.3748838155007539</v>
+        <v>0.2248838155007539</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>10953</v>
       </c>
       <c r="B954" t="n">
-        <v>0.4306014652118518</v>
+        <v>0.2806014652118519</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>10954</v>
       </c>
       <c r="B955" t="n">
-        <v>0.3854209026708333</v>
+        <v>0.2354209026708333</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>10955</v>
       </c>
       <c r="B956" t="n">
-        <v>0.3981607328095094</v>
+        <v>0.2481607328095094</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>10956</v>
       </c>
       <c r="B957" t="n">
-        <v>0.3546280762106613</v>
+        <v>0.2046280762106613</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>10957</v>
       </c>
       <c r="B958" t="n">
-        <v>0.3582288048176059</v>
+        <v>0.2082288048176059</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>10958</v>
       </c>
       <c r="B959" t="n">
-        <v>0.4083836793500266</v>
+        <v>0.2583836793500267</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>10959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.3511004315030024</v>
+        <v>0.2011004315030024</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>10960</v>
       </c>
       <c r="B961" t="n">
-        <v>0.4029041733057936</v>
+        <v>0.2529041733057937</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>10961</v>
       </c>
       <c r="B962" t="n">
-        <v>0.335941148995202</v>
+        <v>0.185941148995202</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>10962</v>
       </c>
       <c r="B963" t="n">
-        <v>0.3232566649065343</v>
+        <v>0.1732566649065343</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>10963</v>
       </c>
       <c r="B964" t="n">
-        <v>0.3624815508401852</v>
+        <v>0.2124815508401852</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>10964</v>
       </c>
       <c r="B965" t="n">
-        <v>0.3955099469530952</v>
+        <v>0.2455099469530952</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>10965</v>
       </c>
       <c r="B966" t="n">
-        <v>0.3811494983486773</v>
+        <v>0.2311494983486773</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>10966</v>
       </c>
       <c r="B967" t="n">
-        <v>0.3802241862366402</v>
+        <v>0.2302241862366402</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>10967</v>
       </c>
       <c r="B968" t="n">
-        <v>0.4234514438369736</v>
+        <v>0.2734514438369736</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>10968</v>
       </c>
       <c r="B969" t="n">
-        <v>0.3626866272183331</v>
+        <v>0.2126866272183331</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>10969</v>
       </c>
       <c r="B970" t="n">
-        <v>0.4005050855553044</v>
+        <v>0.2505050855553044</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>10970</v>
       </c>
       <c r="B971" t="n">
-        <v>0.4003561877146294</v>
+        <v>0.2503561877146295</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>10971</v>
       </c>
       <c r="B972" t="n">
-        <v>0.4182090567799207</v>
+        <v>0.2682090567799207</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>10972</v>
       </c>
       <c r="B973" t="n">
-        <v>0.3315539049452513</v>
+        <v>0.1815539049452513</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>10973</v>
       </c>
       <c r="B974" t="n">
-        <v>0.3839493375708212</v>
+        <v>0.2339493375708211</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>10974</v>
       </c>
       <c r="B975" t="n">
-        <v>0.3914265961151587</v>
+        <v>0.2414265961151588</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>10975</v>
       </c>
       <c r="B976" t="n">
-        <v>0.3609471492630483</v>
+        <v>0.2109471492630483</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>10976</v>
       </c>
       <c r="B977" t="n">
-        <v>0.3461939913219456</v>
+        <v>0.1961939913219456</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>10977</v>
       </c>
       <c r="B978" t="n">
-        <v>0.3265417108759922</v>
+        <v>0.1765417108759921</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>10978</v>
       </c>
       <c r="B979" t="n">
-        <v>0.4025716771822488</v>
+        <v>0.2525716771822489</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>10979</v>
       </c>
       <c r="B980" t="n">
-        <v>0.3733725919644841</v>
+        <v>0.2233725919644841</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>10980</v>
       </c>
       <c r="B981" t="n">
-        <v>0.3568869849524736</v>
+        <v>0.2068869849524736</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>10981</v>
       </c>
       <c r="B982" t="n">
-        <v>0.3649724356335979</v>
+        <v>0.214972435633598</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>10982</v>
       </c>
       <c r="B983" t="n">
-        <v>0.373860542285</v>
+        <v>0.223860542285</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>10983</v>
       </c>
       <c r="B984" t="n">
-        <v>0.349166605768373</v>
+        <v>0.199166605768373</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>10984</v>
       </c>
       <c r="B985" t="n">
-        <v>0.3613536500293122</v>
+        <v>0.2113536500293122</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>10985</v>
       </c>
       <c r="B986" t="n">
-        <v>0.3234143157869975</v>
+        <v>0.1734143157869975</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>10986</v>
       </c>
       <c r="B987" t="n">
-        <v>0.4131329460220378</v>
+        <v>0.2631329460220378</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>10987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.3498220926181349</v>
+        <v>0.1998220926181349</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>10988</v>
       </c>
       <c r="B989" t="n">
-        <v>0.3673586252077777</v>
+        <v>0.2173586252077778</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>10989</v>
       </c>
       <c r="B990" t="n">
-        <v>0.3852979401440475</v>
+        <v>0.2352979401440475</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>10990</v>
       </c>
       <c r="B991" t="n">
-        <v>0.3648381231588623</v>
+        <v>0.2148381231588624</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>10991</v>
       </c>
       <c r="B992" t="n">
-        <v>0.4167911485214684</v>
+        <v>0.2667911485214683</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>10992</v>
       </c>
       <c r="B993" t="n">
-        <v>0.3637337204058683</v>
+        <v>0.2137337204058682</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>10993</v>
       </c>
       <c r="B994" t="n">
-        <v>0.4226330594056349</v>
+        <v>0.2726330594056349</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>10994</v>
       </c>
       <c r="B995" t="n">
-        <v>0.3762917206518253</v>
+        <v>0.2262917206518253</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>10995</v>
       </c>
       <c r="B996" t="n">
-        <v>0.3710217013757539</v>
+        <v>0.2210217013757539</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>10996</v>
       </c>
       <c r="B997" t="n">
-        <v>0.3877683400722353</v>
+        <v>0.2377683400722353</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>10997</v>
       </c>
       <c r="B998" t="n">
-        <v>0.3475998760505952</v>
+        <v>0.1975998760505952</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>10998</v>
       </c>
       <c r="B999" t="n">
-        <v>0.3361023577584391</v>
+        <v>0.1861023577584391</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>10999</v>
       </c>
       <c r="B1000" t="n">
-        <v>0.3778812868055916</v>
+        <v>0.2278812868055916</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>11000</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.3524009944272883</v>
+        <v>0.2024009944272883</v>
       </c>
     </row>
     <row r="1002">
@@ -8450,7 +8450,7 @@
         <v>11001</v>
       </c>
       <c r="B1002" t="n">
-        <v>0.3877906288831349</v>
+        <v>0.2377906288831349</v>
       </c>
     </row>
     <row r="1003">
@@ -8458,7 +8458,7 @@
         <v>11002</v>
       </c>
       <c r="B1003" t="n">
-        <v>0.3776725972753944</v>
+        <v>0.2276725972753944</v>
       </c>
     </row>
     <row r="1004">
@@ -8466,7 +8466,7 @@
         <v>11003</v>
       </c>
       <c r="B1004" t="n">
-        <v>0.4355253173127777</v>
+        <v>0.2855253173127777</v>
       </c>
     </row>
     <row r="1005">
@@ -8474,7 +8474,7 @@
         <v>11004</v>
       </c>
       <c r="B1005" t="n">
-        <v>0.4006090871902213</v>
+        <v>0.2506090871902212</v>
       </c>
     </row>
     <row r="1006">
@@ -8482,7 +8482,7 @@
         <v>11005</v>
       </c>
       <c r="B1006" t="n">
-        <v>0.3962716613353572</v>
+        <v>0.2462716613353572</v>
       </c>
     </row>
     <row r="1007">
@@ -8490,7 +8490,7 @@
         <v>11006</v>
       </c>
       <c r="B1007" t="n">
-        <v>0.4051658768659125</v>
+        <v>0.2551658768659126</v>
       </c>
     </row>
     <row r="1008">
@@ -8498,7 +8498,7 @@
         <v>11007</v>
       </c>
       <c r="B1008" t="n">
-        <v>0.352190270823254</v>
+        <v>0.202190270823254</v>
       </c>
     </row>
     <row r="1009">
@@ -8506,7 +8506,7 @@
         <v>11008</v>
       </c>
       <c r="B1009" t="n">
-        <v>0.3747919081909705</v>
+        <v>0.2247919081909706</v>
       </c>
     </row>
     <row r="1010">
@@ -8514,7 +8514,7 @@
         <v>11009</v>
       </c>
       <c r="B1010" t="n">
-        <v>0.3555847880258588</v>
+        <v>0.2055847880258588</v>
       </c>
     </row>
     <row r="1011">
@@ -8522,7 +8522,7 @@
         <v>11010</v>
       </c>
       <c r="B1011" t="n">
-        <v>0.3833787760549604</v>
+        <v>0.2333787760549604</v>
       </c>
     </row>
     <row r="1012">
@@ -8530,7 +8530,7 @@
         <v>11011</v>
       </c>
       <c r="B1012" t="n">
-        <v>0.3482818097753902</v>
+        <v>0.1982818097753903</v>
       </c>
     </row>
     <row r="1013">
@@ -8538,7 +8538,7 @@
         <v>11012</v>
       </c>
       <c r="B1013" t="n">
-        <v>0.4002821964115739</v>
+        <v>0.2502821964115739</v>
       </c>
     </row>
     <row r="1014">
@@ -8546,7 +8546,7 @@
         <v>11013</v>
       </c>
       <c r="B1014" t="n">
-        <v>0.3424790047991774</v>
+        <v>0.1924790047991774</v>
       </c>
     </row>
     <row r="1015">
@@ -8554,7 +8554,7 @@
         <v>11014</v>
       </c>
       <c r="B1015" t="n">
-        <v>0.3909325652027514</v>
+        <v>0.2409325652027515</v>
       </c>
     </row>
     <row r="1016">
@@ -8562,7 +8562,7 @@
         <v>11015</v>
       </c>
       <c r="B1016" t="n">
-        <v>0.4025451401241269</v>
+        <v>0.2525451401241269</v>
       </c>
     </row>
     <row r="1017">
@@ -8570,7 +8570,7 @@
         <v>11016</v>
       </c>
       <c r="B1017" t="n">
-        <v>0.344704927645926</v>
+        <v>0.194704927645926</v>
       </c>
     </row>
     <row r="1018">
@@ -8578,7 +8578,7 @@
         <v>11017</v>
       </c>
       <c r="B1018" t="n">
-        <v>0.398349728744352</v>
+        <v>0.248349728744352</v>
       </c>
     </row>
     <row r="1019">
@@ -8586,7 +8586,7 @@
         <v>11018</v>
       </c>
       <c r="B1019" t="n">
-        <v>0.3648068224767953</v>
+        <v>0.2148068224767953</v>
       </c>
     </row>
     <row r="1020">
@@ -8594,7 +8594,7 @@
         <v>11019</v>
       </c>
       <c r="B1020" t="n">
-        <v>0.3720369053595108</v>
+        <v>0.2220369053595108</v>
       </c>
     </row>
     <row r="1021">
@@ -8602,7 +8602,7 @@
         <v>11020</v>
       </c>
       <c r="B1021" t="n">
-        <v>0.3768545912044707</v>
+        <v>0.2268545912044708</v>
       </c>
     </row>
     <row r="1022">
@@ -8610,7 +8610,7 @@
         <v>11021</v>
       </c>
       <c r="B1022" t="n">
-        <v>0.3787144295521743</v>
+        <v>0.2287144295521743</v>
       </c>
     </row>
     <row r="1023">
@@ -8618,7 +8618,7 @@
         <v>11022</v>
       </c>
       <c r="B1023" t="n">
-        <v>0.4262029152147067</v>
+        <v>0.2762029152147066</v>
       </c>
     </row>
     <row r="1024">
@@ -8626,7 +8626,7 @@
         <v>11023</v>
       </c>
       <c r="B1024" t="n">
-        <v>0.3876023163675277</v>
+        <v>0.2376023163675278</v>
       </c>
     </row>
     <row r="1025">
@@ -8634,7 +8634,7 @@
         <v>11024</v>
       </c>
       <c r="B1025" t="n">
-        <v>0.3282698904111906</v>
+        <v>0.1782698904111906</v>
       </c>
     </row>
     <row r="1026">
@@ -8642,7 +8642,7 @@
         <v>11025</v>
       </c>
       <c r="B1026" t="n">
-        <v>0.3846849368879703</v>
+        <v>0.2346849368879703</v>
       </c>
     </row>
     <row r="1027">
@@ -8650,7 +8650,7 @@
         <v>11026</v>
       </c>
       <c r="B1027" t="n">
-        <v>0.369191273814246</v>
+        <v>0.219191273814246</v>
       </c>
     </row>
     <row r="1028">
@@ -8658,7 +8658,7 @@
         <v>11027</v>
       </c>
       <c r="B1028" t="n">
-        <v>0.4104956040936977</v>
+        <v>0.2604956040936977</v>
       </c>
     </row>
     <row r="1029">
@@ -8666,7 +8666,7 @@
         <v>11028</v>
       </c>
       <c r="B1029" t="n">
-        <v>0.3833551118965079</v>
+        <v>0.233355111896508</v>
       </c>
     </row>
     <row r="1030">
@@ -8674,7 +8674,7 @@
         <v>11029</v>
       </c>
       <c r="B1030" t="n">
-        <v>0.3717632426307864</v>
+        <v>0.2217632426307864</v>
       </c>
     </row>
     <row r="1031">
@@ -8682,7 +8682,7 @@
         <v>11030</v>
       </c>
       <c r="B1031" t="n">
-        <v>0.4073211282252777</v>
+        <v>0.2573211282252777</v>
       </c>
     </row>
     <row r="1032">
@@ -8690,7 +8690,7 @@
         <v>11031</v>
       </c>
       <c r="B1032" t="n">
-        <v>0.3646989413308731</v>
+        <v>0.2146989413308731</v>
       </c>
     </row>
     <row r="1033">
@@ -8698,7 +8698,7 @@
         <v>11032</v>
       </c>
       <c r="B1033" t="n">
-        <v>0.375381901952857</v>
+        <v>0.225381901952857</v>
       </c>
     </row>
     <row r="1034">
@@ -8706,7 +8706,7 @@
         <v>11033</v>
       </c>
       <c r="B1034" t="n">
-        <v>0.3799232146172618</v>
+        <v>0.2299232146172617</v>
       </c>
     </row>
     <row r="1035">
@@ -8714,7 +8714,7 @@
         <v>11034</v>
       </c>
       <c r="B1035" t="n">
-        <v>0.3544853016694512</v>
+        <v>0.2044853016694512</v>
       </c>
     </row>
     <row r="1036">
@@ -8722,7 +8722,7 @@
         <v>11035</v>
       </c>
       <c r="B1036" t="n">
-        <v>0.3940302665358333</v>
+        <v>0.2440302665358333</v>
       </c>
     </row>
     <row r="1037">
@@ -8730,7 +8730,7 @@
         <v>11036</v>
       </c>
       <c r="B1037" t="n">
-        <v>0.3595463358522222</v>
+        <v>0.2095463358522222</v>
       </c>
     </row>
     <row r="1038">
@@ -8738,7 +8738,7 @@
         <v>11037</v>
       </c>
       <c r="B1038" t="n">
-        <v>0.386571864021217</v>
+        <v>0.236571864021217</v>
       </c>
     </row>
     <row r="1039">
@@ -8746,7 +8746,7 @@
         <v>11038</v>
       </c>
       <c r="B1039" t="n">
-        <v>0.4205007346128572</v>
+        <v>0.2705007346128572</v>
       </c>
     </row>
     <row r="1040">
@@ -8754,7 +8754,7 @@
         <v>11039</v>
       </c>
       <c r="B1040" t="n">
-        <v>0.3517528792709789</v>
+        <v>0.2017528792709789</v>
       </c>
     </row>
     <row r="1041">
@@ -8762,7 +8762,7 @@
         <v>11040</v>
       </c>
       <c r="B1041" t="n">
-        <v>0.4096847889222485</v>
+        <v>0.2596847889222484</v>
       </c>
     </row>
     <row r="1042">
@@ -8770,7 +8770,7 @@
         <v>11041</v>
       </c>
       <c r="B1042" t="n">
-        <v>0.3483467901362831</v>
+        <v>0.1983467901362831</v>
       </c>
     </row>
     <row r="1043">
@@ -8778,7 +8778,7 @@
         <v>11042</v>
       </c>
       <c r="B1043" t="n">
-        <v>0.4221984275756988</v>
+        <v>0.2721984275756988</v>
       </c>
     </row>
     <row r="1044">
@@ -8786,7 +8786,7 @@
         <v>11043</v>
       </c>
       <c r="B1044" t="n">
-        <v>0.3608607288553837</v>
+        <v>0.2108607288553837</v>
       </c>
     </row>
     <row r="1045">
@@ -8794,7 +8794,7 @@
         <v>11044</v>
       </c>
       <c r="B1045" t="n">
-        <v>0.3932395825412876</v>
+        <v>0.2432395825412876</v>
       </c>
     </row>
     <row r="1046">
@@ -8802,7 +8802,7 @@
         <v>11045</v>
       </c>
       <c r="B1046" t="n">
-        <v>0.3476958374543651</v>
+        <v>0.197695837454365</v>
       </c>
     </row>
     <row r="1047">
@@ -8810,7 +8810,7 @@
         <v>11046</v>
       </c>
       <c r="B1047" t="n">
-        <v>0.4023344124553836</v>
+        <v>0.2523344124553836</v>
       </c>
     </row>
     <row r="1048">
@@ -8818,7 +8818,7 @@
         <v>11047</v>
       </c>
       <c r="B1048" t="n">
-        <v>0.4218729622754496</v>
+        <v>0.2718729622754496</v>
       </c>
     </row>
     <row r="1049">
@@ -8826,7 +8826,7 @@
         <v>11048</v>
       </c>
       <c r="B1049" t="n">
-        <v>0.3580005591865442</v>
+        <v>0.2080005591865441</v>
       </c>
     </row>
     <row r="1050">
@@ -8834,7 +8834,7 @@
         <v>11049</v>
       </c>
       <c r="B1050" t="n">
-        <v>0.391949489185926</v>
+        <v>0.241949489185926</v>
       </c>
     </row>
     <row r="1051">
@@ -8842,7 +8842,7 @@
         <v>11050</v>
       </c>
       <c r="B1051" t="n">
-        <v>0.3794310277672619</v>
+        <v>0.2294310277672619</v>
       </c>
     </row>
     <row r="1052">
@@ -8850,7 +8850,7 @@
         <v>11051</v>
       </c>
       <c r="B1052" t="n">
-        <v>0.3529366741802909</v>
+        <v>0.2029366741802909</v>
       </c>
     </row>
     <row r="1053">
@@ -8858,7 +8858,7 @@
         <v>11052</v>
       </c>
       <c r="B1053" t="n">
-        <v>0.3662559561907672</v>
+        <v>0.2162559561907672</v>
       </c>
     </row>
     <row r="1054">
@@ -8866,7 +8866,7 @@
         <v>11053</v>
       </c>
       <c r="B1054" t="n">
-        <v>0.4115339881622088</v>
+        <v>0.2615339881622087</v>
       </c>
     </row>
     <row r="1055">
@@ -8874,7 +8874,7 @@
         <v>11054</v>
       </c>
       <c r="B1055" t="n">
-        <v>0.3880557683764286</v>
+        <v>0.2380557683764286</v>
       </c>
     </row>
     <row r="1056">
@@ -8882,7 +8882,7 @@
         <v>11055</v>
       </c>
       <c r="B1056" t="n">
-        <v>0.4278062337854232</v>
+        <v>0.2778062337854232</v>
       </c>
     </row>
     <row r="1057">
@@ -8890,7 +8890,7 @@
         <v>11056</v>
       </c>
       <c r="B1057" t="n">
-        <v>0.3505593040242725</v>
+        <v>0.2005593040242725</v>
       </c>
     </row>
     <row r="1058">
@@ -8898,7 +8898,7 @@
         <v>11057</v>
       </c>
       <c r="B1058" t="n">
-        <v>0.3892305672388492</v>
+        <v>0.2392305672388492</v>
       </c>
     </row>
     <row r="1059">
@@ -8906,7 +8906,7 @@
         <v>11058</v>
       </c>
       <c r="B1059" t="n">
-        <v>0.3922846440264682</v>
+        <v>0.2422846440264683</v>
       </c>
     </row>
   </sheetData>
